--- a/Resources/dsrProfileData.xlsx
+++ b/Resources/dsrProfileData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Okayker\IdeaProjects\SelAuto\Resources\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="653">
   <si>
     <t>DT Code*</t>
   </si>
@@ -142,12 +142,1849 @@
   </si>
   <si>
     <t>Hassam DSR OB</t>
+  </si>
+  <si>
+    <t>AUTODSR_FBCB1</t>
+  </si>
+  <si>
+    <t>Father_3A36</t>
+  </si>
+  <si>
+    <t>03265032900</t>
+  </si>
+  <si>
+    <t>EMPB9C35D</t>
+  </si>
+  <si>
+    <t>AUTODSR_CBA38</t>
+  </si>
+  <si>
+    <t>Father_DCD4</t>
+  </si>
+  <si>
+    <t>03268529100</t>
+  </si>
+  <si>
+    <t>EMP213D0F</t>
+  </si>
+  <si>
+    <t>AUTODSR_79D9D</t>
+  </si>
+  <si>
+    <t>Father_5108</t>
+  </si>
+  <si>
+    <t>03270987300</t>
+  </si>
+  <si>
+    <t>EMPB0DD79</t>
+  </si>
+  <si>
+    <t>AUTODSR_62055</t>
+  </si>
+  <si>
+    <t>Father_8FC6</t>
+  </si>
+  <si>
+    <t>03006177300</t>
+  </si>
+  <si>
+    <t>EMP62C8A4</t>
+  </si>
+  <si>
+    <t>AUTODSR_745B3</t>
+  </si>
+  <si>
+    <t>Father_B8AF</t>
+  </si>
+  <si>
+    <t>03011355100</t>
+  </si>
+  <si>
+    <t>EMPBF535A</t>
+  </si>
+  <si>
+    <t>AUTODSR_24535</t>
+  </si>
+  <si>
+    <t>Father_A1A5</t>
+  </si>
+  <si>
+    <t>03015145700</t>
+  </si>
+  <si>
+    <t>EMP8A2C9F</t>
+  </si>
+  <si>
+    <t>AUTODSR_11048</t>
+  </si>
+  <si>
+    <t>Father_F686</t>
+  </si>
+  <si>
+    <t>03980157200</t>
+  </si>
+  <si>
+    <t>EMP8AF38B</t>
+  </si>
+  <si>
+    <t>AUTODSR_939C6</t>
+  </si>
+  <si>
+    <t>Father_6A78</t>
+  </si>
+  <si>
+    <t>03984748000</t>
+  </si>
+  <si>
+    <t>EMPA67F5D</t>
+  </si>
+  <si>
+    <t>AUTODSR_9F01F</t>
+  </si>
+  <si>
+    <t>Father_C1D1</t>
+  </si>
+  <si>
+    <t>03987061000</t>
+  </si>
+  <si>
+    <t>EMP5246B6</t>
+  </si>
+  <si>
+    <t>AUTODSR_D7B8B</t>
+  </si>
+  <si>
+    <t>Father_8863</t>
+  </si>
+  <si>
+    <t>03332792400</t>
+  </si>
+  <si>
+    <t>EMPC71133</t>
+  </si>
+  <si>
+    <t>AUTODSR_C9CD9</t>
+  </si>
+  <si>
+    <t>Father_FEFB</t>
+  </si>
+  <si>
+    <t>03337880100</t>
+  </si>
+  <si>
+    <t>EMP22DACF</t>
+  </si>
+  <si>
+    <t>AUTODSR_2ADFE</t>
+  </si>
+  <si>
+    <t>Father_C2A1</t>
+  </si>
+  <si>
+    <t>03341034300</t>
+  </si>
+  <si>
+    <t>EMP6E8A59</t>
+  </si>
+  <si>
+    <t>AUTODSR_F0F29</t>
+  </si>
+  <si>
+    <t>Father_D515</t>
+  </si>
+  <si>
+    <t>03233045100</t>
+  </si>
+  <si>
+    <t>EMPCC44F0</t>
+  </si>
+  <si>
+    <t>AUTODSR_3AD4C</t>
+  </si>
+  <si>
+    <t>Father_C6CC</t>
+  </si>
+  <si>
+    <t>03237443600</t>
+  </si>
+  <si>
+    <t>EMPEBAABB</t>
+  </si>
+  <si>
+    <t>AUTODSR_1F46F</t>
+  </si>
+  <si>
+    <t>Father_706B</t>
+  </si>
+  <si>
+    <t>03239640700</t>
+  </si>
+  <si>
+    <t>EMPBE116F</t>
+  </si>
+  <si>
+    <t>AUTODSR_D7436</t>
+  </si>
+  <si>
+    <t>Father_7DEC</t>
+  </si>
+  <si>
+    <t>03010631200</t>
+  </si>
+  <si>
+    <t>EMP98D955</t>
+  </si>
+  <si>
+    <t>AUTODSR_F346E</t>
+  </si>
+  <si>
+    <t>Father_9324</t>
+  </si>
+  <si>
+    <t>03014122600</t>
+  </si>
+  <si>
+    <t>EMP054271</t>
+  </si>
+  <si>
+    <t>AUTODSR_17D24</t>
+  </si>
+  <si>
+    <t>Father_7479</t>
+  </si>
+  <si>
+    <t>03016561600</t>
+  </si>
+  <si>
+    <t>EMP3183A9</t>
+  </si>
+  <si>
+    <t>AUTODSR_11CDC</t>
+  </si>
+  <si>
+    <t>Father_E53C</t>
+  </si>
+  <si>
+    <t>03285233500</t>
+  </si>
+  <si>
+    <t>EMP24867E</t>
+  </si>
+  <si>
+    <t>AUTODSR_EE157</t>
+  </si>
+  <si>
+    <t>Father_5595</t>
+  </si>
+  <si>
+    <t>03290830000</t>
+  </si>
+  <si>
+    <t>EMP24BF06</t>
+  </si>
+  <si>
+    <t>AUTODSR_7A748</t>
+  </si>
+  <si>
+    <t>Father_0F4A</t>
+  </si>
+  <si>
+    <t>03294625000</t>
+  </si>
+  <si>
+    <t>EMPBBB64B</t>
+  </si>
+  <si>
+    <t>AUTODSR_CC677</t>
+  </si>
+  <si>
+    <t>Father_2AB7</t>
+  </si>
+  <si>
+    <t>03245469000</t>
+  </si>
+  <si>
+    <t>EMP703CC7</t>
+  </si>
+  <si>
+    <t>AUTODSR_AEC84</t>
+  </si>
+  <si>
+    <t>Father_5EF9</t>
+  </si>
+  <si>
+    <t>03248657700</t>
+  </si>
+  <si>
+    <t>EMPC5A997</t>
+  </si>
+  <si>
+    <t>AUTODSR_9970B</t>
+  </si>
+  <si>
+    <t>Father_0EC8</t>
+  </si>
+  <si>
+    <t>03250514600</t>
+  </si>
+  <si>
+    <t>EMP13EBA9</t>
+  </si>
+  <si>
+    <t>AUTODSR_84E10</t>
+  </si>
+  <si>
+    <t>Father_3825</t>
+  </si>
+  <si>
+    <t>03453809100</t>
+  </si>
+  <si>
+    <t>EMPD8C682</t>
+  </si>
+  <si>
+    <t>AUTODSR_5FEC5</t>
+  </si>
+  <si>
+    <t>Father_26E1</t>
+  </si>
+  <si>
+    <t>03456925500</t>
+  </si>
+  <si>
+    <t>EMPB01D62</t>
+  </si>
+  <si>
+    <t>AUTODSR_E45A9</t>
+  </si>
+  <si>
+    <t>Father_0226</t>
+  </si>
+  <si>
+    <t>03459202700</t>
+  </si>
+  <si>
+    <t>EMP98B43C</t>
+  </si>
+  <si>
+    <t>AUTODSR_0F0B7</t>
+  </si>
+  <si>
+    <t>Father_4B3A</t>
+  </si>
+  <si>
+    <t>03991205300</t>
+  </si>
+  <si>
+    <t>EMPE0DA6B</t>
+  </si>
+  <si>
+    <t>AUTODSR_9F6DF</t>
+  </si>
+  <si>
+    <t>Father_AB0F</t>
+  </si>
+  <si>
+    <t>03995679200</t>
+  </si>
+  <si>
+    <t>EMPA4B930</t>
+  </si>
+  <si>
+    <t>AUTODSR_91C96</t>
+  </si>
+  <si>
+    <t>Father_2CDC</t>
+  </si>
+  <si>
+    <t>03998762600</t>
+  </si>
+  <si>
+    <t>EMP5E9E2E</t>
+  </si>
+  <si>
+    <t>AUTODSR_D9BBE</t>
+  </si>
+  <si>
+    <t>Father_D55F</t>
+  </si>
+  <si>
+    <t>03714429300</t>
+  </si>
+  <si>
+    <t>EMPAAD25D</t>
+  </si>
+  <si>
+    <t>AUTODSR_CBFE9</t>
+  </si>
+  <si>
+    <t>Father_AC01</t>
+  </si>
+  <si>
+    <t>03717287700</t>
+  </si>
+  <si>
+    <t>EMP9DFC7B</t>
+  </si>
+  <si>
+    <t>AUTODSR_896ED</t>
+  </si>
+  <si>
+    <t>Father_7437</t>
+  </si>
+  <si>
+    <t>03719817600</t>
+  </si>
+  <si>
+    <t>EMP5D43BB</t>
+  </si>
+  <si>
+    <t>AUTODSR_828DD</t>
+  </si>
+  <si>
+    <t>Father_3520</t>
+  </si>
+  <si>
+    <t>03527593100</t>
+  </si>
+  <si>
+    <t>EMPC409A7</t>
+  </si>
+  <si>
+    <t>AUTODSR_7C030</t>
+  </si>
+  <si>
+    <t>Father_AC4B</t>
+  </si>
+  <si>
+    <t>03530222200</t>
+  </si>
+  <si>
+    <t>EMP608BC0</t>
+  </si>
+  <si>
+    <t>AUTODSR_E170D</t>
+  </si>
+  <si>
+    <t>Father_308C</t>
+  </si>
+  <si>
+    <t>03532118000</t>
+  </si>
+  <si>
+    <t>EMP91C317</t>
+  </si>
+  <si>
+    <t>AUTODSR_78F38</t>
+  </si>
+  <si>
+    <t>Father_A377</t>
+  </si>
+  <si>
+    <t>03006422400</t>
+  </si>
+  <si>
+    <t>EMPC0F304</t>
+  </si>
+  <si>
+    <t>AUTODSR_E6AD1</t>
+  </si>
+  <si>
+    <t>Father_AAA8</t>
+  </si>
+  <si>
+    <t>03010602000</t>
+  </si>
+  <si>
+    <t>EMPF845E6</t>
+  </si>
+  <si>
+    <t>AUTODSR_D920B</t>
+  </si>
+  <si>
+    <t>Father_CC72</t>
+  </si>
+  <si>
+    <t>03013540000</t>
+  </si>
+  <si>
+    <t>EMP80032F</t>
+  </si>
+  <si>
+    <t>AUTODSR_4DEE9</t>
+  </si>
+  <si>
+    <t>Father_D584</t>
+  </si>
+  <si>
+    <t>03055310400</t>
+  </si>
+  <si>
+    <t>EMP05DC2E</t>
+  </si>
+  <si>
+    <t>AUTODSR_6C1F4</t>
+  </si>
+  <si>
+    <t>Father_E427</t>
+  </si>
+  <si>
+    <t>03059534800</t>
+  </si>
+  <si>
+    <t>EMP4ED63C</t>
+  </si>
+  <si>
+    <t>AUTODSR_299F1</t>
+  </si>
+  <si>
+    <t>Father_1F74</t>
+  </si>
+  <si>
+    <t>03061968300</t>
+  </si>
+  <si>
+    <t>EMP61270A</t>
+  </si>
+  <si>
+    <t>AUTODSR_D5E18</t>
+  </si>
+  <si>
+    <t>Father_43FC</t>
+  </si>
+  <si>
+    <t>03430346000</t>
+  </si>
+  <si>
+    <t>EMP89FEB9</t>
+  </si>
+  <si>
+    <t>AUTODSR_80096</t>
+  </si>
+  <si>
+    <t>Father_43AC</t>
+  </si>
+  <si>
+    <t>03434234800</t>
+  </si>
+  <si>
+    <t>EMP523F07</t>
+  </si>
+  <si>
+    <t>AUTODSR_2BB26</t>
+  </si>
+  <si>
+    <t>Father_4E67</t>
+  </si>
+  <si>
+    <t>03437069400</t>
+  </si>
+  <si>
+    <t>EMP93AE26</t>
+  </si>
+  <si>
+    <t>AUTODSR_9B9DA</t>
+  </si>
+  <si>
+    <t>Father_51F4</t>
+  </si>
+  <si>
+    <t>03700208200</t>
+  </si>
+  <si>
+    <t>EMPA26CD7</t>
+  </si>
+  <si>
+    <t>AUTODSR_BD2C2</t>
+  </si>
+  <si>
+    <t>Father_EA3C</t>
+  </si>
+  <si>
+    <t>03702310100</t>
+  </si>
+  <si>
+    <t>EMP7B930B</t>
+  </si>
+  <si>
+    <t>AUTODSR_CCCEF</t>
+  </si>
+  <si>
+    <t>Father_63AD</t>
+  </si>
+  <si>
+    <t>03704312700</t>
+  </si>
+  <si>
+    <t>EMP89C500</t>
+  </si>
+  <si>
+    <t>AUTODSR_D8CEB</t>
+  </si>
+  <si>
+    <t>Father_CEE5</t>
+  </si>
+  <si>
+    <t>03202106400</t>
+  </si>
+  <si>
+    <t>EMPEA3399</t>
+  </si>
+  <si>
+    <t>AUTODSR_5840C</t>
+  </si>
+  <si>
+    <t>Father_5FF2</t>
+  </si>
+  <si>
+    <t>03205983200</t>
+  </si>
+  <si>
+    <t>EMPECAD7F</t>
+  </si>
+  <si>
+    <t>AUTODSR_3DECE</t>
+  </si>
+  <si>
+    <t>Father_75DD</t>
+  </si>
+  <si>
+    <t>03209104200</t>
+  </si>
+  <si>
+    <t>EMP184D2C</t>
+  </si>
+  <si>
+    <t>AUTODSR_167AC</t>
+  </si>
+  <si>
+    <t>Father_BF12</t>
+  </si>
+  <si>
+    <t>03394631000</t>
+  </si>
+  <si>
+    <t>EMP94D047</t>
+  </si>
+  <si>
+    <t>AUTODSR_F0709</t>
+  </si>
+  <si>
+    <t>Father_9CFF</t>
+  </si>
+  <si>
+    <t>03396931400</t>
+  </si>
+  <si>
+    <t>EMPC7C372</t>
+  </si>
+  <si>
+    <t>AUTODSR_650D4</t>
+  </si>
+  <si>
+    <t>Father_1BA5</t>
+  </si>
+  <si>
+    <t>03398534000</t>
+  </si>
+  <si>
+    <t>EMP0AA65D</t>
+  </si>
+  <si>
+    <t>AUTODSR_B145A</t>
+  </si>
+  <si>
+    <t>Father_A67F</t>
+  </si>
+  <si>
+    <t>03287399100</t>
+  </si>
+  <si>
+    <t>EMP7B3379</t>
+  </si>
+  <si>
+    <t>AUTODSR_0B135</t>
+  </si>
+  <si>
+    <t>Father_06CE</t>
+  </si>
+  <si>
+    <t>03291476500</t>
+  </si>
+  <si>
+    <t>EMP67F567</t>
+  </si>
+  <si>
+    <t>AUTODSR_8F611</t>
+  </si>
+  <si>
+    <t>Father_3B9C</t>
+  </si>
+  <si>
+    <t>03293849200</t>
+  </si>
+  <si>
+    <t>EMPE75B35</t>
+  </si>
+  <si>
+    <t>AUTODSR_14E61</t>
+  </si>
+  <si>
+    <t>Father_FDCC</t>
+  </si>
+  <si>
+    <t>03482255400</t>
+  </si>
+  <si>
+    <t>EMP1C513E</t>
+  </si>
+  <si>
+    <t>AUTODSR_4C3EE</t>
+  </si>
+  <si>
+    <t>Father_DBE8</t>
+  </si>
+  <si>
+    <t>03484437500</t>
+  </si>
+  <si>
+    <t>EMP6ABE5B</t>
+  </si>
+  <si>
+    <t>AUTODSR_9007B</t>
+  </si>
+  <si>
+    <t>Father_7D8A</t>
+  </si>
+  <si>
+    <t>03485646100</t>
+  </si>
+  <si>
+    <t>EMP0D5E37</t>
+  </si>
+  <si>
+    <t>AUTODSR_3B089</t>
+  </si>
+  <si>
+    <t>Father_FFEC</t>
+  </si>
+  <si>
+    <t>03214380500</t>
+  </si>
+  <si>
+    <t>EMP5A4919</t>
+  </si>
+  <si>
+    <t>AUTODSR_52D8A</t>
+  </si>
+  <si>
+    <t>Father_5BD1</t>
+  </si>
+  <si>
+    <t>03218872200</t>
+  </si>
+  <si>
+    <t>EMPA2D512</t>
+  </si>
+  <si>
+    <t>AUTODSR_F0F2A</t>
+  </si>
+  <si>
+    <t>Father_B23C</t>
+  </si>
+  <si>
+    <t>03221579500</t>
+  </si>
+  <si>
+    <t>EMPADFDCB</t>
+  </si>
+  <si>
+    <t>AUTODSR_062DF</t>
+  </si>
+  <si>
+    <t>Father_E35F</t>
+  </si>
+  <si>
+    <t>03247259300</t>
+  </si>
+  <si>
+    <t>EMP5471E2</t>
+  </si>
+  <si>
+    <t>AUTODSR_EAD35</t>
+  </si>
+  <si>
+    <t>Father_5821</t>
+  </si>
+  <si>
+    <t>03249727400</t>
+  </si>
+  <si>
+    <t>EMPBA7117</t>
+  </si>
+  <si>
+    <t>AUTODSR_ECB62</t>
+  </si>
+  <si>
+    <t>Father_CBB7</t>
+  </si>
+  <si>
+    <t>03251211100</t>
+  </si>
+  <si>
+    <t>EMP2C65E8</t>
+  </si>
+  <si>
+    <t>AUTODSR_1FF98</t>
+  </si>
+  <si>
+    <t>Father_D9BF</t>
+  </si>
+  <si>
+    <t>03468583000</t>
+  </si>
+  <si>
+    <t>EMPC09CF0</t>
+  </si>
+  <si>
+    <t>AUTODSR_DEC04</t>
+  </si>
+  <si>
+    <t>Father_1606</t>
+  </si>
+  <si>
+    <t>03471846800</t>
+  </si>
+  <si>
+    <t>EMP81493F</t>
+  </si>
+  <si>
+    <t>AUTODSR_A2E2E</t>
+  </si>
+  <si>
+    <t>Father_640D</t>
+  </si>
+  <si>
+    <t>03473835000</t>
+  </si>
+  <si>
+    <t>EMP9535D8</t>
+  </si>
+  <si>
+    <t>AUTODSR_1726B</t>
+  </si>
+  <si>
+    <t>Father_6399</t>
+  </si>
+  <si>
+    <t>03605151500</t>
+  </si>
+  <si>
+    <t>EMP73D12E</t>
+  </si>
+  <si>
+    <t>AUTODSR_DB62C</t>
+  </si>
+  <si>
+    <t>Father_B5A5</t>
+  </si>
+  <si>
+    <t>03608611700</t>
+  </si>
+  <si>
+    <t>EMPFDC07A</t>
+  </si>
+  <si>
+    <t>AUTODSR_6FFF5</t>
+  </si>
+  <si>
+    <t>Father_E962</t>
+  </si>
+  <si>
+    <t>03611429800</t>
+  </si>
+  <si>
+    <t>EMP092BCC</t>
+  </si>
+  <si>
+    <t>AUTODSR_D3846</t>
+  </si>
+  <si>
+    <t>Father_7F3B</t>
+  </si>
+  <si>
+    <t>03954533700</t>
+  </si>
+  <si>
+    <t>EMP6C72C0</t>
+  </si>
+  <si>
+    <t>AUTODSR_CEFC1</t>
+  </si>
+  <si>
+    <t>Father_5967</t>
+  </si>
+  <si>
+    <t>03956400700</t>
+  </si>
+  <si>
+    <t>EMP81FCA0</t>
+  </si>
+  <si>
+    <t>AUTODSR_FF9E6</t>
+  </si>
+  <si>
+    <t>Father_6C43</t>
+  </si>
+  <si>
+    <t>03957565600</t>
+  </si>
+  <si>
+    <t>EMP24EDEF</t>
+  </si>
+  <si>
+    <t>AUTODSR_A2551</t>
+  </si>
+  <si>
+    <t>Father_35F7</t>
+  </si>
+  <si>
+    <t>03849370500</t>
+  </si>
+  <si>
+    <t>EMP64B26D</t>
+  </si>
+  <si>
+    <t>AUTODSR_AB008</t>
+  </si>
+  <si>
+    <t>Father_2327</t>
+  </si>
+  <si>
+    <t>03852890800</t>
+  </si>
+  <si>
+    <t>EMP462182</t>
+  </si>
+  <si>
+    <t>AUTODSR_3F612</t>
+  </si>
+  <si>
+    <t>Father_06E3</t>
+  </si>
+  <si>
+    <t>03855235100</t>
+  </si>
+  <si>
+    <t>EMPCFF7C0</t>
+  </si>
+  <si>
+    <t>AUTODSR_AC2BE</t>
+  </si>
+  <si>
+    <t>Father_6B46</t>
+  </si>
+  <si>
+    <t>03611711400</t>
+  </si>
+  <si>
+    <t>EMP205D16</t>
+  </si>
+  <si>
+    <t>AUTODSR_13FF9</t>
+  </si>
+  <si>
+    <t>Father_27AB</t>
+  </si>
+  <si>
+    <t>03616933800</t>
+  </si>
+  <si>
+    <t>EMPB71082</t>
+  </si>
+  <si>
+    <t>AUTODSR_F4335</t>
+  </si>
+  <si>
+    <t>Father_5368</t>
+  </si>
+  <si>
+    <t>03619374200</t>
+  </si>
+  <si>
+    <t>EMP58E0F0</t>
+  </si>
+  <si>
+    <t>AUTODSR_4BBA8</t>
+  </si>
+  <si>
+    <t>Father_5D73</t>
+  </si>
+  <si>
+    <t>03607149000</t>
+  </si>
+  <si>
+    <t>EMPAD74F4</t>
+  </si>
+  <si>
+    <t>AUTODSR_09E35</t>
+  </si>
+  <si>
+    <t>Father_ED93</t>
+  </si>
+  <si>
+    <t>03612033600</t>
+  </si>
+  <si>
+    <t>EMP1FF22C</t>
+  </si>
+  <si>
+    <t>AUTODSR_52E4B</t>
+  </si>
+  <si>
+    <t>Father_ACE9</t>
+  </si>
+  <si>
+    <t>03614678100</t>
+  </si>
+  <si>
+    <t>EMPA92B78</t>
+  </si>
+  <si>
+    <t>AUTODSR_07E2A</t>
+  </si>
+  <si>
+    <t>Father_0BFC</t>
+  </si>
+  <si>
+    <t>03857029100</t>
+  </si>
+  <si>
+    <t>EMPCBBDFB</t>
+  </si>
+  <si>
+    <t>AUTODSR_4C513</t>
+  </si>
+  <si>
+    <t>Father_33CD</t>
+  </si>
+  <si>
+    <t>03866119000</t>
+  </si>
+  <si>
+    <t>EMP749A93</t>
+  </si>
+  <si>
+    <t>AUTODSR_EE31D</t>
+  </si>
+  <si>
+    <t>Father_BAC2</t>
+  </si>
+  <si>
+    <t>03873676200</t>
+  </si>
+  <si>
+    <t>EMP5A519B</t>
+  </si>
+  <si>
+    <t>AUTODSR_87F3A</t>
+  </si>
+  <si>
+    <t>Father_3A12</t>
+  </si>
+  <si>
+    <t>03628586600</t>
+  </si>
+  <si>
+    <t>EMP7E19F2</t>
+  </si>
+  <si>
+    <t>AUTODSR_92338</t>
+  </si>
+  <si>
+    <t>Father_B74C</t>
+  </si>
+  <si>
+    <t>03637256100</t>
+  </si>
+  <si>
+    <t>EMP8B73E5</t>
+  </si>
+  <si>
+    <t>AUTODSR_17159</t>
+  </si>
+  <si>
+    <t>Father_F918</t>
+  </si>
+  <si>
+    <t>03641144300</t>
+  </si>
+  <si>
+    <t>EMP29B815</t>
+  </si>
+  <si>
+    <t>AUTODSR_18A86</t>
+  </si>
+  <si>
+    <t>Father_C001</t>
+  </si>
+  <si>
+    <t>03030012400</t>
+  </si>
+  <si>
+    <t>EMPED16E8</t>
+  </si>
+  <si>
+    <t>AUTODSR_288A5</t>
+  </si>
+  <si>
+    <t>Father_1E6F</t>
+  </si>
+  <si>
+    <t>03038425600</t>
+  </si>
+  <si>
+    <t>EMPE20D08</t>
+  </si>
+  <si>
+    <t>AUTODSR_65E9D</t>
+  </si>
+  <si>
+    <t>Father_B8A4</t>
+  </si>
+  <si>
+    <t>03043495400</t>
+  </si>
+  <si>
+    <t>EMP0BA122</t>
+  </si>
+  <si>
+    <t>AUTODSR_FE73F</t>
+  </si>
+  <si>
+    <t>Father_5D6E</t>
+  </si>
+  <si>
+    <t>03719202000</t>
+  </si>
+  <si>
+    <t>EMP07C99A</t>
+  </si>
+  <si>
+    <t>AUTODSR_40A03</t>
+  </si>
+  <si>
+    <t>Father_052B</t>
+  </si>
+  <si>
+    <t>03731692700</t>
+  </si>
+  <si>
+    <t>EMP2B92D4</t>
+  </si>
+  <si>
+    <t>AUTODSR_F1B2D</t>
+  </si>
+  <si>
+    <t>Father_51DB</t>
+  </si>
+  <si>
+    <t>03739893000</t>
+  </si>
+  <si>
+    <t>EMPB25B10</t>
+  </si>
+  <si>
+    <t>AUTODSR_BB12A</t>
+  </si>
+  <si>
+    <t>Father_8CB8</t>
+  </si>
+  <si>
+    <t>03393190400</t>
+  </si>
+  <si>
+    <t>EMP878094</t>
+  </si>
+  <si>
+    <t>AUTODSR_4CC0B</t>
+  </si>
+  <si>
+    <t>Father_0B68</t>
+  </si>
+  <si>
+    <t>03405201100</t>
+  </si>
+  <si>
+    <t>EMP017B16</t>
+  </si>
+  <si>
+    <t>AUTODSR_B303F</t>
+  </si>
+  <si>
+    <t>Father_E084</t>
+  </si>
+  <si>
+    <t>03411960400</t>
+  </si>
+  <si>
+    <t>EMP30CF43</t>
+  </si>
+  <si>
+    <t>AUTODSR_39BCD</t>
+  </si>
+  <si>
+    <t>Father_F966</t>
+  </si>
+  <si>
+    <t>03009510000</t>
+  </si>
+  <si>
+    <t>EMP2E002A</t>
+  </si>
+  <si>
+    <t>AUTODSR_805E6</t>
+  </si>
+  <si>
+    <t>Father_E3B6</t>
+  </si>
+  <si>
+    <t>03015588500</t>
+  </si>
+  <si>
+    <t>EMPDA5681</t>
+  </si>
+  <si>
+    <t>AUTODSR_825FE</t>
+  </si>
+  <si>
+    <t>Father_A31E</t>
+  </si>
+  <si>
+    <t>03019037500</t>
+  </si>
+  <si>
+    <t>EMP476034</t>
+  </si>
+  <si>
+    <t>AUTODSR_3E575</t>
+  </si>
+  <si>
+    <t>Father_8A72</t>
+  </si>
+  <si>
+    <t>03633718600</t>
+  </si>
+  <si>
+    <t>EMP1591A0</t>
+  </si>
+  <si>
+    <t>AUTODSR_4F50E</t>
+  </si>
+  <si>
+    <t>Father_A9D4</t>
+  </si>
+  <si>
+    <t>03648401400</t>
+  </si>
+  <si>
+    <t>EMP8CF0CC</t>
+  </si>
+  <si>
+    <t>AUTODSR_A2D6E</t>
+  </si>
+  <si>
+    <t>Father_6302</t>
+  </si>
+  <si>
+    <t>03654865300</t>
+  </si>
+  <si>
+    <t>EMP44926C</t>
+  </si>
+  <si>
+    <t>AUTODSR_0D956</t>
+  </si>
+  <si>
+    <t>Father_87A6</t>
+  </si>
+  <si>
+    <t>03869679200</t>
+  </si>
+  <si>
+    <t>EMPC8BFDD</t>
+  </si>
+  <si>
+    <t>AUTODSR_8C422</t>
+  </si>
+  <si>
+    <t>Father_62AA</t>
+  </si>
+  <si>
+    <t>03888257900</t>
+  </si>
+  <si>
+    <t>EMP068A81</t>
+  </si>
+  <si>
+    <t>AUTODSR_77B1C</t>
+  </si>
+  <si>
+    <t>Father_83D6</t>
+  </si>
+  <si>
+    <t>03898659000</t>
+  </si>
+  <si>
+    <t>EMPCE311D</t>
+  </si>
+  <si>
+    <t>AUTODSR_6F4AB</t>
+  </si>
+  <si>
+    <t>Father_43EB</t>
+  </si>
+  <si>
+    <t>03688047600</t>
+  </si>
+  <si>
+    <t>EMP1011AD</t>
+  </si>
+  <si>
+    <t>AUTODSR_61938</t>
+  </si>
+  <si>
+    <t>Father_D349</t>
+  </si>
+  <si>
+    <t>03693786500</t>
+  </si>
+  <si>
+    <t>EMP10E7DA</t>
+  </si>
+  <si>
+    <t>AUTODSR_D976F</t>
+  </si>
+  <si>
+    <t>Father_A58D</t>
+  </si>
+  <si>
+    <t>03697236600</t>
+  </si>
+  <si>
+    <t>EMPA411DA</t>
+  </si>
+  <si>
+    <t>AUTODSR_B9F48</t>
+  </si>
+  <si>
+    <t>Father_E454</t>
+  </si>
+  <si>
+    <t>03662336000</t>
+  </si>
+  <si>
+    <t>EMPE3EAD4</t>
+  </si>
+  <si>
+    <t>AUTODSR_3D9CF</t>
+  </si>
+  <si>
+    <t>Father_1117</t>
+  </si>
+  <si>
+    <t>03671234600</t>
+  </si>
+  <si>
+    <t>EMPEC04A1</t>
+  </si>
+  <si>
+    <t>AUTODSR_A0443</t>
+  </si>
+  <si>
+    <t>Father_1CE3</t>
+  </si>
+  <si>
+    <t>03675852300</t>
+  </si>
+  <si>
+    <t>EMP8E1DC4</t>
+  </si>
+  <si>
+    <t>AUTODSR_22C35</t>
+  </si>
+  <si>
+    <t>Father_2793</t>
+  </si>
+  <si>
+    <t>03247061100</t>
+  </si>
+  <si>
+    <t>EMP4585CC</t>
+  </si>
+  <si>
+    <t>AUTODSR_4CF4F</t>
+  </si>
+  <si>
+    <t>Father_8F88</t>
+  </si>
+  <si>
+    <t>03253621000</t>
+  </si>
+  <si>
+    <t>EMP9D3D27</t>
+  </si>
+  <si>
+    <t>AUTODSR_F2324</t>
+  </si>
+  <si>
+    <t>Father_5F42</t>
+  </si>
+  <si>
+    <t>03256931600</t>
+  </si>
+  <si>
+    <t>EMP6CBA86</t>
+  </si>
+  <si>
+    <t>AUTODSR_EC716</t>
+  </si>
+  <si>
+    <t>Father_D7EE</t>
+  </si>
+  <si>
+    <t>03258670200</t>
+  </si>
+  <si>
+    <t>EMP6A07DC</t>
+  </si>
+  <si>
+    <t>AUTODSR_3190F</t>
+  </si>
+  <si>
+    <t>Father_EA43</t>
+  </si>
+  <si>
+    <t>03263971900</t>
+  </si>
+  <si>
+    <t>EMP71CC39</t>
+  </si>
+  <si>
+    <t>AUTODSR_61CF6</t>
+  </si>
+  <si>
+    <t>Father_6453</t>
+  </si>
+  <si>
+    <t>03267462800</t>
+  </si>
+  <si>
+    <t>EMP4B1778</t>
+  </si>
+  <si>
+    <t>AUTODSR_05C13</t>
+  </si>
+  <si>
+    <t>Father_A43D</t>
+  </si>
+  <si>
+    <t>03817908500</t>
+  </si>
+  <si>
+    <t>EMP025550</t>
+  </si>
+  <si>
+    <t>AUTODSR_605C2</t>
+  </si>
+  <si>
+    <t>Father_A63C</t>
+  </si>
+  <si>
+    <t>03826221900</t>
+  </si>
+  <si>
+    <t>EMPF69DAD</t>
+  </si>
+  <si>
+    <t>AUTODSR_F3054</t>
+  </si>
+  <si>
+    <t>Father_E6E7</t>
+  </si>
+  <si>
+    <t>03830564100</t>
+  </si>
+  <si>
+    <t>EMP1560FC</t>
+  </si>
+  <si>
+    <t>AUTODSR_774F9</t>
+  </si>
+  <si>
+    <t>Father_6B12</t>
+  </si>
+  <si>
+    <t>03735549500</t>
+  </si>
+  <si>
+    <t>EMP589BEE</t>
+  </si>
+  <si>
+    <t>AUTODSR_319DB</t>
+  </si>
+  <si>
+    <t>Father_C48B</t>
+  </si>
+  <si>
+    <t>03744993000</t>
+  </si>
+  <si>
+    <t>EMPBBFFD7</t>
+  </si>
+  <si>
+    <t>AUTODSR_328D5</t>
+  </si>
+  <si>
+    <t>Father_698D</t>
+  </si>
+  <si>
+    <t>03751409700</t>
+  </si>
+  <si>
+    <t>EMPDA538F</t>
+  </si>
+  <si>
+    <t>AUTODSR_F0D6E</t>
+  </si>
+  <si>
+    <t>Father_5F9A</t>
+  </si>
+  <si>
+    <t>03334878300</t>
+  </si>
+  <si>
+    <t>EMP87AB81</t>
+  </si>
+  <si>
+    <t>AUTODSR_F5292</t>
+  </si>
+  <si>
+    <t>Father_4D0C</t>
+  </si>
+  <si>
+    <t>03339662500</t>
+  </si>
+  <si>
+    <t>EMP0F6A9D</t>
+  </si>
+  <si>
+    <t>AUTODSR_2F165</t>
+  </si>
+  <si>
+    <t>Father_16AE</t>
+  </si>
+  <si>
+    <t>03343476000</t>
+  </si>
+  <si>
+    <t>EMP1CFC3A</t>
+  </si>
+  <si>
+    <t>AUTODSR_1B783</t>
+  </si>
+  <si>
+    <t>Father_9080</t>
+  </si>
+  <si>
+    <t>03709148900</t>
+  </si>
+  <si>
+    <t>EMP28CE7E</t>
+  </si>
+  <si>
+    <t>AUTODSR_8382E</t>
+  </si>
+  <si>
+    <t>Father_033C</t>
+  </si>
+  <si>
+    <t>03714781900</t>
+  </si>
+  <si>
+    <t>EMPBFA135</t>
+  </si>
+  <si>
+    <t>AUTODSR_F4C80</t>
+  </si>
+  <si>
+    <t>Father_1D0D</t>
+  </si>
+  <si>
+    <t>03720436500</t>
+  </si>
+  <si>
+    <t>EMPFD8867</t>
+  </si>
+  <si>
+    <t>AUTODSR_CEDDC</t>
+  </si>
+  <si>
+    <t>Father_5F18</t>
+  </si>
+  <si>
+    <t>03403330100</t>
+  </si>
+  <si>
+    <t>EMP4D3DC6</t>
+  </si>
+  <si>
+    <t>AUTODSR_75D2F</t>
+  </si>
+  <si>
+    <t>Father_F1D3</t>
+  </si>
+  <si>
+    <t>03407813800</t>
+  </si>
+  <si>
+    <t>EMP9E4925</t>
+  </si>
+  <si>
+    <t>AUTODSR_67A97</t>
+  </si>
+  <si>
+    <t>Father_8DA4</t>
+  </si>
+  <si>
+    <t>03411055900</t>
+  </si>
+  <si>
+    <t>EMP6BA2CF</t>
+  </si>
+  <si>
+    <t>AUTODSR_B1F11</t>
+  </si>
+  <si>
+    <t>Father_5318</t>
+  </si>
+  <si>
+    <t>03479845700</t>
+  </si>
+  <si>
+    <t>EMPB91A96</t>
+  </si>
+  <si>
+    <t>AUTODSR_DF3AB</t>
+  </si>
+  <si>
+    <t>Father_3684</t>
+  </si>
+  <si>
+    <t>03490930400</t>
+  </si>
+  <si>
+    <t>EMP09662E</t>
+  </si>
+  <si>
+    <t>AUTODSR_2485A</t>
+  </si>
+  <si>
+    <t>Father_0165</t>
+  </si>
+  <si>
+    <t>03497173800</t>
+  </si>
+  <si>
+    <t>EMPD2B5AB</t>
+  </si>
+  <si>
+    <t>AUTODSR_2151F</t>
+  </si>
+  <si>
+    <t>Father_93E8</t>
+  </si>
+  <si>
+    <t>03311817000</t>
+  </si>
+  <si>
+    <t>EMPED8CBB</t>
+  </si>
+  <si>
+    <t>AUTODSR_C9DD9</t>
+  </si>
+  <si>
+    <t>Father_6DB8</t>
+  </si>
+  <si>
+    <t>03322061500</t>
+  </si>
+  <si>
+    <t>EMPE48404</t>
+  </si>
+  <si>
+    <t>AUTODSR_93AAB</t>
+  </si>
+  <si>
+    <t>Father_6F39</t>
+  </si>
+  <si>
+    <t>03328079600</t>
+  </si>
+  <si>
+    <t>EMP97437E</t>
+  </si>
+  <si>
+    <t>AUTODSR_81CDA</t>
+  </si>
+  <si>
+    <t>Father_CF9B</t>
+  </si>
+  <si>
+    <t>03831493000</t>
+  </si>
+  <si>
+    <t>EMPAADA38</t>
+  </si>
+  <si>
+    <t>AUTODSR_B020C</t>
+  </si>
+  <si>
+    <t>Father_7D59</t>
+  </si>
+  <si>
+    <t>03837038500</t>
+  </si>
+  <si>
+    <t>EMP3DEF89</t>
+  </si>
+  <si>
+    <t>AUTODSR_B10E8</t>
+  </si>
+  <si>
+    <t>Father_0818</t>
+  </si>
+  <si>
+    <t>03840867200</t>
+  </si>
+  <si>
+    <t>EMP3921A8</t>
+  </si>
+  <si>
+    <t>AUTODSR_F3481</t>
+  </si>
+  <si>
+    <t>Father_9140</t>
+  </si>
+  <si>
+    <t>03972478100</t>
+  </si>
+  <si>
+    <t>EMP63EFEE</t>
+  </si>
+  <si>
+    <t>AUTODSR_B122F</t>
+  </si>
+  <si>
+    <t>Father_A042</t>
+  </si>
+  <si>
+    <t>03977979600</t>
+  </si>
+  <si>
+    <t>EMP6F92E1</t>
+  </si>
+  <si>
+    <t>AUTODSR_B390D</t>
+  </si>
+  <si>
+    <t>Father_FBCB</t>
+  </si>
+  <si>
+    <t>03981299600</t>
+  </si>
+  <si>
+    <t>EMP7A3511</t>
+  </si>
+  <si>
+    <t>AUTODSR_52C97</t>
+  </si>
+  <si>
+    <t>Father_554D</t>
+  </si>
+  <si>
+    <t>03162363600</t>
+  </si>
+  <si>
+    <t>EMPDACD9C</t>
+  </si>
+  <si>
+    <t>AUTODSR_515DA</t>
+  </si>
+  <si>
+    <t>Father_4704</t>
+  </si>
+  <si>
+    <t>03171674000</t>
+  </si>
+  <si>
+    <t>EMPFAE6D4</t>
+  </si>
+  <si>
+    <t>AUTODSR_0F248</t>
+  </si>
+  <si>
+    <t>Father_EBB7</t>
+  </si>
+  <si>
+    <t>03177740600</t>
+  </si>
+  <si>
+    <t>EMP21138B</t>
+  </si>
+  <si>
+    <t>AUTODSR_FC312</t>
+  </si>
+  <si>
+    <t>Father_C1A3</t>
+  </si>
+  <si>
+    <t>03152620300</t>
+  </si>
+  <si>
+    <t>EMP034C03</t>
+  </si>
+  <si>
+    <t>AUTODSR_8A92D</t>
+  </si>
+  <si>
+    <t>Father_2AFA</t>
+  </si>
+  <si>
+    <t>03158402500</t>
+  </si>
+  <si>
+    <t>EMPC9AAC5</t>
+  </si>
+  <si>
+    <t>AUTODSR_D60D9</t>
+  </si>
+  <si>
+    <t>Father_0183</t>
+  </si>
+  <si>
+    <t>03162796700</t>
+  </si>
+  <si>
+    <t>EMP1259CC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,270 +2304,279 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1796875" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.6328125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.54296875"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="9" max="9" customWidth="true" width="18.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.6328125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.54296875"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="12.36328125"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.1796875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="6.90625"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="14.08984375"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.6328125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.1796875"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="22.6328125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C2" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="H2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" t="s" s="0">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="C3" t="s" s="0">
+        <v>645</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s" s="0">
+        <v>648</v>
+      </c>
+      <c r="H3" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" t="s" s="0">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>650</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>651</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s" s="0">
+        <v>652</v>
+      </c>
+      <c r="H4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" t="s" s="0">
         <v>22</v>
       </c>
     </row>

--- a/Resources/dsrProfileData.xlsx
+++ b/Resources/dsrProfileData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="833">
   <si>
     <t>DT Code*</t>
   </si>
@@ -1978,6 +1978,546 @@
   </si>
   <si>
     <t>EMP1259CC</t>
+  </si>
+  <si>
+    <t>AUTODSR_863B5</t>
+  </si>
+  <si>
+    <t>Father_FCD6</t>
+  </si>
+  <si>
+    <t>03745937800</t>
+  </si>
+  <si>
+    <t>EMP5D58E8</t>
+  </si>
+  <si>
+    <t>AUTODSR_8CED2</t>
+  </si>
+  <si>
+    <t>Father_47E8</t>
+  </si>
+  <si>
+    <t>03748913800</t>
+  </si>
+  <si>
+    <t>EMPBF7C18</t>
+  </si>
+  <si>
+    <t>AUTODSR_BA92B</t>
+  </si>
+  <si>
+    <t>Father_5C91</t>
+  </si>
+  <si>
+    <t>03750830700</t>
+  </si>
+  <si>
+    <t>EMP44849C</t>
+  </si>
+  <si>
+    <t>AUTODSR_2163D</t>
+  </si>
+  <si>
+    <t>Father_681A</t>
+  </si>
+  <si>
+    <t>03438721900</t>
+  </si>
+  <si>
+    <t>EMP28E756</t>
+  </si>
+  <si>
+    <t>AUTODSR_8FBD3</t>
+  </si>
+  <si>
+    <t>Father_E93B</t>
+  </si>
+  <si>
+    <t>03443088300</t>
+  </si>
+  <si>
+    <t>EMP4AD0AF</t>
+  </si>
+  <si>
+    <t>AUTODSR_64DD0</t>
+  </si>
+  <si>
+    <t>Father_6750</t>
+  </si>
+  <si>
+    <t>03446195500</t>
+  </si>
+  <si>
+    <t>EMP966670</t>
+  </si>
+  <si>
+    <t>AUTODSR_B500A</t>
+  </si>
+  <si>
+    <t>Father_49BC</t>
+  </si>
+  <si>
+    <t>03367322900</t>
+  </si>
+  <si>
+    <t>EMP5B453F</t>
+  </si>
+  <si>
+    <t>AUTODSR_E62BA</t>
+  </si>
+  <si>
+    <t>Father_6549</t>
+  </si>
+  <si>
+    <t>03372412000</t>
+  </si>
+  <si>
+    <t>EMP32412D</t>
+  </si>
+  <si>
+    <t>AUTODSR_EB8C2</t>
+  </si>
+  <si>
+    <t>Father_DA83</t>
+  </si>
+  <si>
+    <t>03374401700</t>
+  </si>
+  <si>
+    <t>EMPEEA912</t>
+  </si>
+  <si>
+    <t>AUTODSR_F3D25</t>
+  </si>
+  <si>
+    <t>Father_B913</t>
+  </si>
+  <si>
+    <t>03169118400</t>
+  </si>
+  <si>
+    <t>EMP2E4391</t>
+  </si>
+  <si>
+    <t>AUTODSR_A3655</t>
+  </si>
+  <si>
+    <t>Father_6630</t>
+  </si>
+  <si>
+    <t>03173653300</t>
+  </si>
+  <si>
+    <t>EMPFCA3B8</t>
+  </si>
+  <si>
+    <t>AUTODSR_300FC</t>
+  </si>
+  <si>
+    <t>Father_02F5</t>
+  </si>
+  <si>
+    <t>03176290800</t>
+  </si>
+  <si>
+    <t>EMP69E6B1</t>
+  </si>
+  <si>
+    <t>AUTODSR_52C76</t>
+  </si>
+  <si>
+    <t>Father_FE4D</t>
+  </si>
+  <si>
+    <t>03602113400</t>
+  </si>
+  <si>
+    <t>EMP64CA63</t>
+  </si>
+  <si>
+    <t>AUTODSR_F58F5</t>
+  </si>
+  <si>
+    <t>Father_061E</t>
+  </si>
+  <si>
+    <t>03606578300</t>
+  </si>
+  <si>
+    <t>EMP128C6D</t>
+  </si>
+  <si>
+    <t>AUTODSR_8A87E</t>
+  </si>
+  <si>
+    <t>Father_78C7</t>
+  </si>
+  <si>
+    <t>03609489700</t>
+  </si>
+  <si>
+    <t>EMP5E9BEB</t>
+  </si>
+  <si>
+    <t>AUTODSR_5305B</t>
+  </si>
+  <si>
+    <t>Father_DF08</t>
+  </si>
+  <si>
+    <t>03646351400</t>
+  </si>
+  <si>
+    <t>EMP7F0CC2</t>
+  </si>
+  <si>
+    <t>AUTODSR_E49CC</t>
+  </si>
+  <si>
+    <t>Father_AD59</t>
+  </si>
+  <si>
+    <t>03651209100</t>
+  </si>
+  <si>
+    <t>EMP9C51EA</t>
+  </si>
+  <si>
+    <t>AUTODSR_A4E25</t>
+  </si>
+  <si>
+    <t>Father_993B</t>
+  </si>
+  <si>
+    <t>03656257400</t>
+  </si>
+  <si>
+    <t>EMPBB5344</t>
+  </si>
+  <si>
+    <t>AUTODSR_68144</t>
+  </si>
+  <si>
+    <t>Father_BF8D</t>
+  </si>
+  <si>
+    <t>03342912700</t>
+  </si>
+  <si>
+    <t>EMP3DD630</t>
+  </si>
+  <si>
+    <t>AUTODSR_64057</t>
+  </si>
+  <si>
+    <t>Father_7407</t>
+  </si>
+  <si>
+    <t>03346290800</t>
+  </si>
+  <si>
+    <t>EMP590F4C</t>
+  </si>
+  <si>
+    <t>AUTODSR_452E5</t>
+  </si>
+  <si>
+    <t>Father_7A02</t>
+  </si>
+  <si>
+    <t>03349407700</t>
+  </si>
+  <si>
+    <t>EMP77B47F</t>
+  </si>
+  <si>
+    <t>AUTODSR_E0FD7</t>
+  </si>
+  <si>
+    <t>Father_16DE</t>
+  </si>
+  <si>
+    <t>03324289800</t>
+  </si>
+  <si>
+    <t>EMP00C7E0</t>
+  </si>
+  <si>
+    <t>AUTODSR_5A3AB</t>
+  </si>
+  <si>
+    <t>Father_44E9</t>
+  </si>
+  <si>
+    <t>03329053400</t>
+  </si>
+  <si>
+    <t>EMPF1D58A</t>
+  </si>
+  <si>
+    <t>AUTODSR_7E9B4</t>
+  </si>
+  <si>
+    <t>Father_18A9</t>
+  </si>
+  <si>
+    <t>03331823100</t>
+  </si>
+  <si>
+    <t>EMPF99F27</t>
+  </si>
+  <si>
+    <t>AUTODSR_56D8E</t>
+  </si>
+  <si>
+    <t>Father_5BD9</t>
+  </si>
+  <si>
+    <t>03969425900</t>
+  </si>
+  <si>
+    <t>EMPD24D93</t>
+  </si>
+  <si>
+    <t>AUTODSR_A5C3E</t>
+  </si>
+  <si>
+    <t>Father_7861</t>
+  </si>
+  <si>
+    <t>03973184600</t>
+  </si>
+  <si>
+    <t>EMP774ECA</t>
+  </si>
+  <si>
+    <t>AUTODSR_32394</t>
+  </si>
+  <si>
+    <t>Father_DFF3</t>
+  </si>
+  <si>
+    <t>03976908900</t>
+  </si>
+  <si>
+    <t>EMPC3EFEC</t>
+  </si>
+  <si>
+    <t>AUTODSR_E1FEF</t>
+  </si>
+  <si>
+    <t>Father_179F</t>
+  </si>
+  <si>
+    <t>03317834400</t>
+  </si>
+  <si>
+    <t>EMP22228D</t>
+  </si>
+  <si>
+    <t>AUTODSR_AB3D5</t>
+  </si>
+  <si>
+    <t>Father_9610</t>
+  </si>
+  <si>
+    <t>03322073300</t>
+  </si>
+  <si>
+    <t>EMP148F71</t>
+  </si>
+  <si>
+    <t>AUTODSR_B773F</t>
+  </si>
+  <si>
+    <t>Father_6336</t>
+  </si>
+  <si>
+    <t>03324920000</t>
+  </si>
+  <si>
+    <t>EMPED84DB</t>
+  </si>
+  <si>
+    <t>AUTODSR_14214</t>
+  </si>
+  <si>
+    <t>Father_5471</t>
+  </si>
+  <si>
+    <t>03100149300</t>
+  </si>
+  <si>
+    <t>EMP84C1C1</t>
+  </si>
+  <si>
+    <t>AUTODSR_8818F</t>
+  </si>
+  <si>
+    <t>Father_8797</t>
+  </si>
+  <si>
+    <t>03104201300</t>
+  </si>
+  <si>
+    <t>EMP35B16E</t>
+  </si>
+  <si>
+    <t>AUTODSR_16585</t>
+  </si>
+  <si>
+    <t>Father_59FC</t>
+  </si>
+  <si>
+    <t>03106713100</t>
+  </si>
+  <si>
+    <t>EMPE27789</t>
+  </si>
+  <si>
+    <t>AUTODSR_3ACC8</t>
+  </si>
+  <si>
+    <t>Father_B7C7</t>
+  </si>
+  <si>
+    <t>03629606800</t>
+  </si>
+  <si>
+    <t>EMP56B986</t>
+  </si>
+  <si>
+    <t>AUTODSR_DAC56</t>
+  </si>
+  <si>
+    <t>Father_BB6B</t>
+  </si>
+  <si>
+    <t>03634122400</t>
+  </si>
+  <si>
+    <t>EMPB30A19</t>
+  </si>
+  <si>
+    <t>AUTODSR_FC2ED</t>
+  </si>
+  <si>
+    <t>Father_182E</t>
+  </si>
+  <si>
+    <t>03637446300</t>
+  </si>
+  <si>
+    <t>EMP5AC718</t>
+  </si>
+  <si>
+    <t>AUTODSR_11F05</t>
+  </si>
+  <si>
+    <t>Father_8EF7</t>
+  </si>
+  <si>
+    <t>03920796200</t>
+  </si>
+  <si>
+    <t>EMP1D664E</t>
+  </si>
+  <si>
+    <t>AUTODSR_04F76</t>
+  </si>
+  <si>
+    <t>Father_65BE</t>
+  </si>
+  <si>
+    <t>03925777600</t>
+  </si>
+  <si>
+    <t>EMPADB5C6</t>
+  </si>
+  <si>
+    <t>AUTODSR_22783</t>
+  </si>
+  <si>
+    <t>Father_B3FF</t>
+  </si>
+  <si>
+    <t>03928099300</t>
+  </si>
+  <si>
+    <t>EMP33208F</t>
+  </si>
+  <si>
+    <t>AUTODSR_85C65</t>
+  </si>
+  <si>
+    <t>Father_BD47</t>
+  </si>
+  <si>
+    <t>03283751500</t>
+  </si>
+  <si>
+    <t>EMPCBFEDE</t>
+  </si>
+  <si>
+    <t>AUTODSR_1859C</t>
+  </si>
+  <si>
+    <t>Father_76B7</t>
+  </si>
+  <si>
+    <t>03288130600</t>
+  </si>
+  <si>
+    <t>EMPA9EBEB</t>
+  </si>
+  <si>
+    <t>AUTODSR_ACC56</t>
+  </si>
+  <si>
+    <t>Father_DE54</t>
+  </si>
+  <si>
+    <t>03290523400</t>
+  </si>
+  <si>
+    <t>EMPFA9DAF</t>
+  </si>
+  <si>
+    <t>AUTODSR_B2F54</t>
+  </si>
+  <si>
+    <t>Father_AEA5</t>
+  </si>
+  <si>
+    <t>03569728000</t>
+  </si>
+  <si>
+    <t>EMPB873C9</t>
+  </si>
+  <si>
+    <t>AUTODSR_953D8</t>
+  </si>
+  <si>
+    <t>Father_034D</t>
+  </si>
+  <si>
+    <t>03574520700</t>
+  </si>
+  <si>
+    <t>EMP4F2979</t>
+  </si>
+  <si>
+    <t>AUTODSR_A6B67</t>
+  </si>
+  <si>
+    <t>Father_9351</t>
+  </si>
+  <si>
+    <t>03576977600</t>
+  </si>
+  <si>
+    <t>EMP9CAD9D</t>
   </si>
 </sst>
 </file>
@@ -2399,19 +2939,19 @@
         <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>641</v>
+        <v>821</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>642</v>
+        <v>822</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>643</v>
+        <v>823</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>644</v>
+        <v>824</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>23</v>
@@ -2461,19 +3001,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>645</v>
+        <v>825</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>646</v>
+        <v>826</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>647</v>
+        <v>827</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>648</v>
+        <v>828</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>23</v>
@@ -2523,19 +3063,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>649</v>
+        <v>829</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>650</v>
+        <v>830</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>651</v>
+        <v>831</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>652</v>
+        <v>832</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>23</v>

--- a/Resources/dsrProfileData.xlsx
+++ b/Resources/dsrProfileData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1120">
   <si>
     <t>DT Code*</t>
   </si>
@@ -2518,6 +2518,867 @@
   </si>
   <si>
     <t>EMP9CAD9D</t>
+  </si>
+  <si>
+    <t>AUTODSR_B4C5F</t>
+  </si>
+  <si>
+    <t>Father_1032</t>
+  </si>
+  <si>
+    <t>03880098400</t>
+  </si>
+  <si>
+    <t>EMPEA9FB7</t>
+  </si>
+  <si>
+    <t>AUTODSR_1F10C</t>
+  </si>
+  <si>
+    <t>Father_F188</t>
+  </si>
+  <si>
+    <t>03884349600</t>
+  </si>
+  <si>
+    <t>EMPF2BF86</t>
+  </si>
+  <si>
+    <t>AUTODSR_E8D31</t>
+  </si>
+  <si>
+    <t>Father_82A4</t>
+  </si>
+  <si>
+    <t>03886381800</t>
+  </si>
+  <si>
+    <t>EMPDF64CA</t>
+  </si>
+  <si>
+    <t>AUTODSR_845EA</t>
+  </si>
+  <si>
+    <t>Father_67CA</t>
+  </si>
+  <si>
+    <t>03950214200</t>
+  </si>
+  <si>
+    <t>EMPBA631C</t>
+  </si>
+  <si>
+    <t>AUTODSR_593C2</t>
+  </si>
+  <si>
+    <t>Father_94CA</t>
+  </si>
+  <si>
+    <t>03952674700</t>
+  </si>
+  <si>
+    <t>EMP684131</t>
+  </si>
+  <si>
+    <t>AUTODSR_97ECD</t>
+  </si>
+  <si>
+    <t>Father_74A5</t>
+  </si>
+  <si>
+    <t>03954331900</t>
+  </si>
+  <si>
+    <t>EMP0BECB9</t>
+  </si>
+  <si>
+    <t>AUTODSR_0EBD4</t>
+  </si>
+  <si>
+    <t>Father_0529</t>
+  </si>
+  <si>
+    <t>03066963000</t>
+  </si>
+  <si>
+    <t>EMP59E48F</t>
+  </si>
+  <si>
+    <t>AUTODSR_088D7</t>
+  </si>
+  <si>
+    <t>Father_9BEB</t>
+  </si>
+  <si>
+    <t>03069742500</t>
+  </si>
+  <si>
+    <t>EMPCAC205</t>
+  </si>
+  <si>
+    <t>AUTODSR_F2A59</t>
+  </si>
+  <si>
+    <t>Father_EA69</t>
+  </si>
+  <si>
+    <t>03071773800</t>
+  </si>
+  <si>
+    <t>EMPA56AA4</t>
+  </si>
+  <si>
+    <t>AUTODSR_104DE</t>
+  </si>
+  <si>
+    <t>Father_EFEE</t>
+  </si>
+  <si>
+    <t>03612742600</t>
+  </si>
+  <si>
+    <t>EMPA89715</t>
+  </si>
+  <si>
+    <t>AUTODSR_49453</t>
+  </si>
+  <si>
+    <t>Father_F1A7</t>
+  </si>
+  <si>
+    <t>03618610800</t>
+  </si>
+  <si>
+    <t>EMPEF6C5F</t>
+  </si>
+  <si>
+    <t>AUTODSR_F4674</t>
+  </si>
+  <si>
+    <t>Father_F5AA</t>
+  </si>
+  <si>
+    <t>03622143000</t>
+  </si>
+  <si>
+    <t>EMP44361B</t>
+  </si>
+  <si>
+    <t>AUTODSR_620C3</t>
+  </si>
+  <si>
+    <t>Father_9882</t>
+  </si>
+  <si>
+    <t>03892111800</t>
+  </si>
+  <si>
+    <t>EMPB8C4AD</t>
+  </si>
+  <si>
+    <t>AUTODSR_C8F5B</t>
+  </si>
+  <si>
+    <t>Father_BF30</t>
+  </si>
+  <si>
+    <t>03894385200</t>
+  </si>
+  <si>
+    <t>EMPEF6CD9</t>
+  </si>
+  <si>
+    <t>AUTODSR_A7CFF</t>
+  </si>
+  <si>
+    <t>Father_F5F7</t>
+  </si>
+  <si>
+    <t>03895591500</t>
+  </si>
+  <si>
+    <t>EMP50BCD8</t>
+  </si>
+  <si>
+    <t>AUTODSR_FEFA4</t>
+  </si>
+  <si>
+    <t>Father_20B9</t>
+  </si>
+  <si>
+    <t>03146230600</t>
+  </si>
+  <si>
+    <t>EMPF2C56D</t>
+  </si>
+  <si>
+    <t>AUTODSR_45040</t>
+  </si>
+  <si>
+    <t>Father_591E</t>
+  </si>
+  <si>
+    <t>03150209000</t>
+  </si>
+  <si>
+    <t>EMP6EF292</t>
+  </si>
+  <si>
+    <t>AUTODSR_22F33</t>
+  </si>
+  <si>
+    <t>Father_8A56</t>
+  </si>
+  <si>
+    <t>03152329300</t>
+  </si>
+  <si>
+    <t>EMPB16E07</t>
+  </si>
+  <si>
+    <t>AUTODSR_4CE6B</t>
+  </si>
+  <si>
+    <t>Father_1287</t>
+  </si>
+  <si>
+    <t>03162031700</t>
+  </si>
+  <si>
+    <t>EMP8B7C66</t>
+  </si>
+  <si>
+    <t>AUTODSR_47DDC</t>
+  </si>
+  <si>
+    <t>Father_FBC2</t>
+  </si>
+  <si>
+    <t>03164360700</t>
+  </si>
+  <si>
+    <t>EMP98B98F</t>
+  </si>
+  <si>
+    <t>AUTODSR_06975</t>
+  </si>
+  <si>
+    <t>Father_8272</t>
+  </si>
+  <si>
+    <t>03165752000</t>
+  </si>
+  <si>
+    <t>EMP094F7B</t>
+  </si>
+  <si>
+    <t>AUTODSR_BF065</t>
+  </si>
+  <si>
+    <t>Father_E4FE</t>
+  </si>
+  <si>
+    <t>03235161200</t>
+  </si>
+  <si>
+    <t>EMP6AFF2A</t>
+  </si>
+  <si>
+    <t>AUTODSR_17099</t>
+  </si>
+  <si>
+    <t>Father_83E7</t>
+  </si>
+  <si>
+    <t>03237822900</t>
+  </si>
+  <si>
+    <t>EMPF875A5</t>
+  </si>
+  <si>
+    <t>AUTODSR_8F68E</t>
+  </si>
+  <si>
+    <t>Father_DF6E</t>
+  </si>
+  <si>
+    <t>03239079000</t>
+  </si>
+  <si>
+    <t>EMP83D348</t>
+  </si>
+  <si>
+    <t>AUTODSR_73F9E</t>
+  </si>
+  <si>
+    <t>Father_5574</t>
+  </si>
+  <si>
+    <t>03199343500</t>
+  </si>
+  <si>
+    <t>EMP5BC994</t>
+  </si>
+  <si>
+    <t>AUTODSR_43B28</t>
+  </si>
+  <si>
+    <t>Father_F3C7</t>
+  </si>
+  <si>
+    <t>03200427900</t>
+  </si>
+  <si>
+    <t>EMP35FD2C</t>
+  </si>
+  <si>
+    <t>AUTODSR_9C4EF</t>
+  </si>
+  <si>
+    <t>Father_2F2E</t>
+  </si>
+  <si>
+    <t>03201446100</t>
+  </si>
+  <si>
+    <t>EMPFADFAE</t>
+  </si>
+  <si>
+    <t>AUTODSR_B70F4</t>
+  </si>
+  <si>
+    <t>Father_333D</t>
+  </si>
+  <si>
+    <t>03531699700</t>
+  </si>
+  <si>
+    <t>EMP48C602</t>
+  </si>
+  <si>
+    <t>AUTODSR_2C7AD</t>
+  </si>
+  <si>
+    <t>Father_D392</t>
+  </si>
+  <si>
+    <t>03535532000</t>
+  </si>
+  <si>
+    <t>EMP7E0170</t>
+  </si>
+  <si>
+    <t>AUTODSR_CD098</t>
+  </si>
+  <si>
+    <t>Father_0B2A</t>
+  </si>
+  <si>
+    <t>03537686500</t>
+  </si>
+  <si>
+    <t>EMP8540F3</t>
+  </si>
+  <si>
+    <t>AUTODSR_4FEFA</t>
+  </si>
+  <si>
+    <t>Father_541D</t>
+  </si>
+  <si>
+    <t>03777613300</t>
+  </si>
+  <si>
+    <t>EMP4D5862</t>
+  </si>
+  <si>
+    <t>AUTODSR_1B374</t>
+  </si>
+  <si>
+    <t>Father_557E</t>
+  </si>
+  <si>
+    <t>03780774500</t>
+  </si>
+  <si>
+    <t>EMPE15C40</t>
+  </si>
+  <si>
+    <t>AUTODSR_238B8</t>
+  </si>
+  <si>
+    <t>Father_0650</t>
+  </si>
+  <si>
+    <t>03783288800</t>
+  </si>
+  <si>
+    <t>EMP0D9AA2</t>
+  </si>
+  <si>
+    <t>AUTODSR_3D943</t>
+  </si>
+  <si>
+    <t>Father_5CB0</t>
+  </si>
+  <si>
+    <t>03012025200</t>
+  </si>
+  <si>
+    <t>EMP43E4EE</t>
+  </si>
+  <si>
+    <t>AUTODSR_B4A85</t>
+  </si>
+  <si>
+    <t>Father_1CE2</t>
+  </si>
+  <si>
+    <t>03015783000</t>
+  </si>
+  <si>
+    <t>EMP8B6353</t>
+  </si>
+  <si>
+    <t>AUTODSR_C2D4B</t>
+  </si>
+  <si>
+    <t>Father_7B39</t>
+  </si>
+  <si>
+    <t>03018835400</t>
+  </si>
+  <si>
+    <t>EMPF6BC60</t>
+  </si>
+  <si>
+    <t>AUTODSR_AA0A7</t>
+  </si>
+  <si>
+    <t>Father_76E1</t>
+  </si>
+  <si>
+    <t>03548813000</t>
+  </si>
+  <si>
+    <t>EMP2A9D84</t>
+  </si>
+  <si>
+    <t>AUTODSR_ACA9D</t>
+  </si>
+  <si>
+    <t>Father_D2E8</t>
+  </si>
+  <si>
+    <t>03549757100</t>
+  </si>
+  <si>
+    <t>EMP82B9FE</t>
+  </si>
+  <si>
+    <t>AUTODSR_66DD8</t>
+  </si>
+  <si>
+    <t>Father_074A</t>
+  </si>
+  <si>
+    <t>03550425600</t>
+  </si>
+  <si>
+    <t>EMP48B045</t>
+  </si>
+  <si>
+    <t>AUTODSR_17269</t>
+  </si>
+  <si>
+    <t>Father_E68C</t>
+  </si>
+  <si>
+    <t>03790210500</t>
+  </si>
+  <si>
+    <t>EMP49D18F</t>
+  </si>
+  <si>
+    <t>AUTODSR_BC022</t>
+  </si>
+  <si>
+    <t>Father_F036</t>
+  </si>
+  <si>
+    <t>03794780200</t>
+  </si>
+  <si>
+    <t>EMP9CED4E</t>
+  </si>
+  <si>
+    <t>AUTODSR_A5CEF</t>
+  </si>
+  <si>
+    <t>Father_B4A6</t>
+  </si>
+  <si>
+    <t>03796921600</t>
+  </si>
+  <si>
+    <t>EMP612445</t>
+  </si>
+  <si>
+    <t>AUTODSR_51B6C</t>
+  </si>
+  <si>
+    <t>Father_A033</t>
+  </si>
+  <si>
+    <t>03245356000</t>
+  </si>
+  <si>
+    <t>EMP9B0D6B</t>
+  </si>
+  <si>
+    <t>AUTODSR_DC2EE</t>
+  </si>
+  <si>
+    <t>Father_ABE3</t>
+  </si>
+  <si>
+    <t>03247944900</t>
+  </si>
+  <si>
+    <t>EMP512CCC</t>
+  </si>
+  <si>
+    <t>AUTODSR_2160C</t>
+  </si>
+  <si>
+    <t>Father_06A3</t>
+  </si>
+  <si>
+    <t>03249439900</t>
+  </si>
+  <si>
+    <t>EMPD53691</t>
+  </si>
+  <si>
+    <t>AUTODSR_77C29</t>
+  </si>
+  <si>
+    <t>Father_BA4B</t>
+  </si>
+  <si>
+    <t>03457192300</t>
+  </si>
+  <si>
+    <t>EMPF9B7A3</t>
+  </si>
+  <si>
+    <t>AUTODSR_70C24</t>
+  </si>
+  <si>
+    <t>Father_38C7</t>
+  </si>
+  <si>
+    <t>03469267900</t>
+  </si>
+  <si>
+    <t>EMP0D4300</t>
+  </si>
+  <si>
+    <t>AUTODSR_8D4D5</t>
+  </si>
+  <si>
+    <t>Father_DE20</t>
+  </si>
+  <si>
+    <t>03475630200</t>
+  </si>
+  <si>
+    <t>EMP5D02E7</t>
+  </si>
+  <si>
+    <t>AUTODSR_ADF83</t>
+  </si>
+  <si>
+    <t>Father_630D</t>
+  </si>
+  <si>
+    <t>03630496800</t>
+  </si>
+  <si>
+    <t>EMPE7ED8E</t>
+  </si>
+  <si>
+    <t>AUTODSR_0259D</t>
+  </si>
+  <si>
+    <t>Father_F531</t>
+  </si>
+  <si>
+    <t>03634939400</t>
+  </si>
+  <si>
+    <t>EMPD497DB</t>
+  </si>
+  <si>
+    <t>AUTODSR_6FF8C</t>
+  </si>
+  <si>
+    <t>Father_45E6</t>
+  </si>
+  <si>
+    <t>03638654600</t>
+  </si>
+  <si>
+    <t>EMP0D6149</t>
+  </si>
+  <si>
+    <t>AUTODSR_2A306</t>
+  </si>
+  <si>
+    <t>Father_EDB7</t>
+  </si>
+  <si>
+    <t>03392661300</t>
+  </si>
+  <si>
+    <t>EMP35A85D</t>
+  </si>
+  <si>
+    <t>AUTODSR_81B1D</t>
+  </si>
+  <si>
+    <t>03401175700</t>
+  </si>
+  <si>
+    <t>EMPBB4296</t>
+  </si>
+  <si>
+    <t>AUTODSR_E72D5</t>
+  </si>
+  <si>
+    <t>Father_60B2</t>
+  </si>
+  <si>
+    <t>03404977500</t>
+  </si>
+  <si>
+    <t>EMP491F50</t>
+  </si>
+  <si>
+    <t>AUTODSR_B2948</t>
+  </si>
+  <si>
+    <t>Father_9549</t>
+  </si>
+  <si>
+    <t>03055976800</t>
+  </si>
+  <si>
+    <t>EMP4AFEA9</t>
+  </si>
+  <si>
+    <t>AUTODSR_D6616</t>
+  </si>
+  <si>
+    <t>Father_0DE0</t>
+  </si>
+  <si>
+    <t>03062086400</t>
+  </si>
+  <si>
+    <t>EMP235F2A</t>
+  </si>
+  <si>
+    <t>AUTODSR_D96FF</t>
+  </si>
+  <si>
+    <t>Father_FAD1</t>
+  </si>
+  <si>
+    <t>03068737200</t>
+  </si>
+  <si>
+    <t>EMPBB7A23</t>
+  </si>
+  <si>
+    <t>AUTODSR_DDE86</t>
+  </si>
+  <si>
+    <t>Father_9662</t>
+  </si>
+  <si>
+    <t>03371182800</t>
+  </si>
+  <si>
+    <t>EMP53ED7D</t>
+  </si>
+  <si>
+    <t>AUTODSR_AF676</t>
+  </si>
+  <si>
+    <t>Father_C9FD</t>
+  </si>
+  <si>
+    <t>03377895600</t>
+  </si>
+  <si>
+    <t>EMPFC095F</t>
+  </si>
+  <si>
+    <t>AUTODSR_7AEA1</t>
+  </si>
+  <si>
+    <t>Father_91AF</t>
+  </si>
+  <si>
+    <t>03381925600</t>
+  </si>
+  <si>
+    <t>EMP679EE0</t>
+  </si>
+  <si>
+    <t>AUTODSR_7B3A6</t>
+  </si>
+  <si>
+    <t>Father_C0DE</t>
+  </si>
+  <si>
+    <t>03798471100</t>
+  </si>
+  <si>
+    <t>EMPFA144B</t>
+  </si>
+  <si>
+    <t>AUTODSR_3D934</t>
+  </si>
+  <si>
+    <t>Father_9D29</t>
+  </si>
+  <si>
+    <t>03815521000</t>
+  </si>
+  <si>
+    <t>EMPE3980B</t>
+  </si>
+  <si>
+    <t>AUTODSR_DD22A</t>
+  </si>
+  <si>
+    <t>Father_6B60</t>
+  </si>
+  <si>
+    <t>03825902900</t>
+  </si>
+  <si>
+    <t>EMPF2C9CC</t>
+  </si>
+  <si>
+    <t>AUTODSR_6A7E5</t>
+  </si>
+  <si>
+    <t>Father_7C39</t>
+  </si>
+  <si>
+    <t>03281688800</t>
+  </si>
+  <si>
+    <t>EMP98E135</t>
+  </si>
+  <si>
+    <t>AUTODSR_50517</t>
+  </si>
+  <si>
+    <t>Father_C6AF</t>
+  </si>
+  <si>
+    <t>03288140100</t>
+  </si>
+  <si>
+    <t>EMP63D2E9</t>
+  </si>
+  <si>
+    <t>AUTODSR_09B73</t>
+  </si>
+  <si>
+    <t>Father_A04B</t>
+  </si>
+  <si>
+    <t>03291153700</t>
+  </si>
+  <si>
+    <t>EMP02648C</t>
+  </si>
+  <si>
+    <t>AUTODSR_4FB62</t>
+  </si>
+  <si>
+    <t>Father_25CC</t>
+  </si>
+  <si>
+    <t>03125917800</t>
+  </si>
+  <si>
+    <t>EMP585BFE</t>
+  </si>
+  <si>
+    <t>AUTODSR_8E0ED</t>
+  </si>
+  <si>
+    <t>Father_A626</t>
+  </si>
+  <si>
+    <t>03129619300</t>
+  </si>
+  <si>
+    <t>EMPAD9FB0</t>
+  </si>
+  <si>
+    <t>AUTODSR_5B02B</t>
+  </si>
+  <si>
+    <t>Father_3C62</t>
+  </si>
+  <si>
+    <t>03132639900</t>
+  </si>
+  <si>
+    <t>EMP4DC502</t>
+  </si>
+  <si>
+    <t>AUTODSR_B7868</t>
+  </si>
+  <si>
+    <t>Father_681C</t>
+  </si>
+  <si>
+    <t>03338006100</t>
+  </si>
+  <si>
+    <t>EMP828623</t>
+  </si>
+  <si>
+    <t>AUTODSR_C51EF</t>
+  </si>
+  <si>
+    <t>Father_44C4</t>
+  </si>
+  <si>
+    <t>03342347400</t>
+  </si>
+  <si>
+    <t>EMPFE8457</t>
+  </si>
+  <si>
+    <t>AUTODSR_03AE2</t>
+  </si>
+  <si>
+    <t>Father_D944</t>
+  </si>
+  <si>
+    <t>03345166100</t>
+  </si>
+  <si>
+    <t>EMPBB8625</t>
   </si>
 </sst>
 </file>
@@ -2939,19 +3800,19 @@
         <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>821</v>
+        <v>1108</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>822</v>
+        <v>1109</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>823</v>
+        <v>1110</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>824</v>
+        <v>1111</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>23</v>
@@ -3001,19 +3862,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>825</v>
+        <v>1112</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>826</v>
+        <v>1113</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>827</v>
+        <v>1114</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>828</v>
+        <v>1115</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>23</v>
@@ -3063,19 +3924,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>829</v>
+        <v>1116</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>830</v>
+        <v>1117</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>831</v>
+        <v>1118</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>832</v>
+        <v>1119</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>23</v>

--- a/Resources/dsrProfileData.xlsx
+++ b/Resources/dsrProfileData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1180">
   <si>
     <t>DT Code*</t>
   </si>
@@ -3379,6 +3379,186 @@
   </si>
   <si>
     <t>EMPBB8625</t>
+  </si>
+  <si>
+    <t>AUTODSR_31111</t>
+  </si>
+  <si>
+    <t>Father_3AE8</t>
+  </si>
+  <si>
+    <t>03741741600</t>
+  </si>
+  <si>
+    <t>EMPA42B76</t>
+  </si>
+  <si>
+    <t>AUTODSR_C3E1E</t>
+  </si>
+  <si>
+    <t>Father_4BFC</t>
+  </si>
+  <si>
+    <t>03745863000</t>
+  </si>
+  <si>
+    <t>EMP94B394</t>
+  </si>
+  <si>
+    <t>AUTODSR_B987C</t>
+  </si>
+  <si>
+    <t>Father_EAB0</t>
+  </si>
+  <si>
+    <t>03748433000</t>
+  </si>
+  <si>
+    <t>EMPF97AC8</t>
+  </si>
+  <si>
+    <t>AUTODSR_A760D</t>
+  </si>
+  <si>
+    <t>Father_6D79</t>
+  </si>
+  <si>
+    <t>03568425200</t>
+  </si>
+  <si>
+    <t>EMP3B8D7C</t>
+  </si>
+  <si>
+    <t>AUTODSR_D13B2</t>
+  </si>
+  <si>
+    <t>Father_DB5D</t>
+  </si>
+  <si>
+    <t>03573432200</t>
+  </si>
+  <si>
+    <t>EMPD05E33</t>
+  </si>
+  <si>
+    <t>AUTODSR_80A6E</t>
+  </si>
+  <si>
+    <t>Father_A99D</t>
+  </si>
+  <si>
+    <t>03576016000</t>
+  </si>
+  <si>
+    <t>EMPCD3EDF</t>
+  </si>
+  <si>
+    <t>AUTODSR_088DC</t>
+  </si>
+  <si>
+    <t>Father_599E</t>
+  </si>
+  <si>
+    <t>03589872500</t>
+  </si>
+  <si>
+    <t>EMPE6B2B6</t>
+  </si>
+  <si>
+    <t>AUTODSR_D836E</t>
+  </si>
+  <si>
+    <t>Father_6F84</t>
+  </si>
+  <si>
+    <t>03592344000</t>
+  </si>
+  <si>
+    <t>EMP1943CB</t>
+  </si>
+  <si>
+    <t>AUTODSR_00D9F</t>
+  </si>
+  <si>
+    <t>Father_0714</t>
+  </si>
+  <si>
+    <t>03594490400</t>
+  </si>
+  <si>
+    <t>EMP4FE21D</t>
+  </si>
+  <si>
+    <t>AUTODSR_87A1A</t>
+  </si>
+  <si>
+    <t>Father_EA2F</t>
+  </si>
+  <si>
+    <t>03761646700</t>
+  </si>
+  <si>
+    <t>EMPE99E74</t>
+  </si>
+  <si>
+    <t>AUTODSR_FF812</t>
+  </si>
+  <si>
+    <t>Father_69C9</t>
+  </si>
+  <si>
+    <t>03765460400</t>
+  </si>
+  <si>
+    <t>EMP4DB5F6</t>
+  </si>
+  <si>
+    <t>AUTODSR_FDB43</t>
+  </si>
+  <si>
+    <t>Father_687B</t>
+  </si>
+  <si>
+    <t>03767737800</t>
+  </si>
+  <si>
+    <t>EMP476F0A</t>
+  </si>
+  <si>
+    <t>AUTODSR_F75AE</t>
+  </si>
+  <si>
+    <t>Father_4FB3</t>
+  </si>
+  <si>
+    <t>03375464600</t>
+  </si>
+  <si>
+    <t>EMP42B697</t>
+  </si>
+  <si>
+    <t>AUTODSR_99057</t>
+  </si>
+  <si>
+    <t>Father_FE18</t>
+  </si>
+  <si>
+    <t>03378122500</t>
+  </si>
+  <si>
+    <t>EMPA98F7C</t>
+  </si>
+  <si>
+    <t>AUTODSR_D081D</t>
+  </si>
+  <si>
+    <t>Father_6D5F</t>
+  </si>
+  <si>
+    <t>03380208700</t>
+  </si>
+  <si>
+    <t>EMPC49454</t>
   </si>
 </sst>
 </file>
@@ -3800,19 +3980,19 @@
         <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1108</v>
+        <v>1168</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1109</v>
+        <v>1169</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>1110</v>
+        <v>1170</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>1111</v>
+        <v>1171</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>23</v>
@@ -3862,19 +4042,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1112</v>
+        <v>1172</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1113</v>
+        <v>1173</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>1114</v>
+        <v>1174</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>1115</v>
+        <v>1175</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>23</v>
@@ -3924,19 +4104,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1116</v>
+        <v>1176</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1117</v>
+        <v>1177</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>1118</v>
+        <v>1178</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>1119</v>
+        <v>1179</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>23</v>

--- a/Resources/dsrProfileData.xlsx
+++ b/Resources/dsrProfileData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="1204">
   <si>
     <t>DT Code*</t>
   </si>
@@ -3559,6 +3559,78 @@
   </si>
   <si>
     <t>EMPC49454</t>
+  </si>
+  <si>
+    <t>AUTODSR_442EA</t>
+  </si>
+  <si>
+    <t>Father_A392</t>
+  </si>
+  <si>
+    <t>03621977500</t>
+  </si>
+  <si>
+    <t>EMPACDB88</t>
+  </si>
+  <si>
+    <t>AUTODSR_914B0</t>
+  </si>
+  <si>
+    <t>Father_BC20</t>
+  </si>
+  <si>
+    <t>03623599700</t>
+  </si>
+  <si>
+    <t>EMP159BFC</t>
+  </si>
+  <si>
+    <t>AUTODSR_0AD85</t>
+  </si>
+  <si>
+    <t>Father_8C1D</t>
+  </si>
+  <si>
+    <t>03624595800</t>
+  </si>
+  <si>
+    <t>EMP426E37</t>
+  </si>
+  <si>
+    <t>AUTODSR_7A547</t>
+  </si>
+  <si>
+    <t>Father_0988</t>
+  </si>
+  <si>
+    <t>03869370300</t>
+  </si>
+  <si>
+    <t>EMP73754D</t>
+  </si>
+  <si>
+    <t>AUTODSR_1F1D4</t>
+  </si>
+  <si>
+    <t>Father_C864</t>
+  </si>
+  <si>
+    <t>03870941100</t>
+  </si>
+  <si>
+    <t>EMP375387</t>
+  </si>
+  <si>
+    <t>AUTODSR_9CB31</t>
+  </si>
+  <si>
+    <t>Father_2EC4</t>
+  </si>
+  <si>
+    <t>03871865900</t>
+  </si>
+  <si>
+    <t>EMP687693</t>
   </si>
 </sst>
 </file>
@@ -3980,19 +4052,19 @@
         <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1168</v>
+        <v>1192</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1169</v>
+        <v>1193</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>1170</v>
+        <v>1194</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>1171</v>
+        <v>1195</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>23</v>
@@ -4042,19 +4114,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1172</v>
+        <v>1196</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1173</v>
+        <v>1197</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>1174</v>
+        <v>1198</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>1175</v>
+        <v>1199</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>23</v>
@@ -4104,19 +4176,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1176</v>
+        <v>1200</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1177</v>
+        <v>1201</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>1178</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>1179</v>
+        <v>1203</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>23</v>

--- a/Resources/dsrProfileData.xlsx
+++ b/Resources/dsrProfileData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="1180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1192">
   <si>
     <t>DT Code*</t>
   </si>
@@ -3559,6 +3559,42 @@
   </si>
   <si>
     <t>EMPC49454</t>
+  </si>
+  <si>
+    <t>AUTODSR_307F7</t>
+  </si>
+  <si>
+    <t>Father_68DB</t>
+  </si>
+  <si>
+    <t>03996712500</t>
+  </si>
+  <si>
+    <t>EMP2437C6</t>
+  </si>
+  <si>
+    <t>AUTODSR_4B15F</t>
+  </si>
+  <si>
+    <t>Father_239E</t>
+  </si>
+  <si>
+    <t>03999435500</t>
+  </si>
+  <si>
+    <t>EMP378322</t>
+  </si>
+  <si>
+    <t>AUTODSR_77A70</t>
+  </si>
+  <si>
+    <t>Father_648D</t>
+  </si>
+  <si>
+    <t>03001747700</t>
+  </si>
+  <si>
+    <t>EMP5CFF77</t>
   </si>
 </sst>
 </file>
@@ -3980,19 +4016,19 @@
         <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1168</v>
+        <v>1180</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1169</v>
+        <v>1181</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>1170</v>
+        <v>1182</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>1171</v>
+        <v>1183</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>23</v>
@@ -4042,19 +4078,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1172</v>
+        <v>1184</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1173</v>
+        <v>1185</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>1174</v>
+        <v>1186</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>1175</v>
+        <v>1187</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>23</v>
@@ -4104,19 +4140,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1176</v>
+        <v>1188</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1177</v>
+        <v>1189</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>1178</v>
+        <v>1190</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>1179</v>
+        <v>1191</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>23</v>

--- a/Resources/dsrProfileData.xlsx
+++ b/Resources/dsrProfileData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="1407">
   <si>
     <t>DT Code*</t>
   </si>
@@ -3595,6 +3595,651 @@
   </si>
   <si>
     <t>EMP5CFF77</t>
+  </si>
+  <si>
+    <t>AUTODSR_F6A97</t>
+  </si>
+  <si>
+    <t>Father_2EFD</t>
+  </si>
+  <si>
+    <t>03633450100</t>
+  </si>
+  <si>
+    <t>EMPACDBC7</t>
+  </si>
+  <si>
+    <t>AUTODSR_167B7</t>
+  </si>
+  <si>
+    <t>Father_9FDD</t>
+  </si>
+  <si>
+    <t>03637015100</t>
+  </si>
+  <si>
+    <t>EMPBD7E97</t>
+  </si>
+  <si>
+    <t>AUTODSR_5BF04</t>
+  </si>
+  <si>
+    <t>Father_90C8</t>
+  </si>
+  <si>
+    <t>03639635500</t>
+  </si>
+  <si>
+    <t>EMP6D8C22</t>
+  </si>
+  <si>
+    <t>AUTODSR_1532F</t>
+  </si>
+  <si>
+    <t>Father_EA72</t>
+  </si>
+  <si>
+    <t>03713768900</t>
+  </si>
+  <si>
+    <t>EMPD2C5B9</t>
+  </si>
+  <si>
+    <t>AUTODSR_656C2</t>
+  </si>
+  <si>
+    <t>Father_C7E2</t>
+  </si>
+  <si>
+    <t>03724228200</t>
+  </si>
+  <si>
+    <t>EMP13F75F</t>
+  </si>
+  <si>
+    <t>AUTODSR_516EF</t>
+  </si>
+  <si>
+    <t>Father_C2F5</t>
+  </si>
+  <si>
+    <t>03730404700</t>
+  </si>
+  <si>
+    <t>EMP25D111</t>
+  </si>
+  <si>
+    <t>AUTODSR_8B025</t>
+  </si>
+  <si>
+    <t>Father_92E7</t>
+  </si>
+  <si>
+    <t>03544082000</t>
+  </si>
+  <si>
+    <t>EMP8E4CB2</t>
+  </si>
+  <si>
+    <t>AUTODSR_41849</t>
+  </si>
+  <si>
+    <t>Father_5DFE</t>
+  </si>
+  <si>
+    <t>03548290700</t>
+  </si>
+  <si>
+    <t>EMPC6E975</t>
+  </si>
+  <si>
+    <t>AUTODSR_26899</t>
+  </si>
+  <si>
+    <t>Father_D56F</t>
+  </si>
+  <si>
+    <t>03552365300</t>
+  </si>
+  <si>
+    <t>EMPAED7A8</t>
+  </si>
+  <si>
+    <t>AUTODSR_4BEFF</t>
+  </si>
+  <si>
+    <t>Father_77E4</t>
+  </si>
+  <si>
+    <t>03415949100</t>
+  </si>
+  <si>
+    <t>EMP3F51A1</t>
+  </si>
+  <si>
+    <t>AUTODSR_2A14E</t>
+  </si>
+  <si>
+    <t>Father_3906</t>
+  </si>
+  <si>
+    <t>03418090700</t>
+  </si>
+  <si>
+    <t>EMP5B6127</t>
+  </si>
+  <si>
+    <t>AUTODSR_05D22</t>
+  </si>
+  <si>
+    <t>Father_0EA8</t>
+  </si>
+  <si>
+    <t>03419268300</t>
+  </si>
+  <si>
+    <t>EMP178503</t>
+  </si>
+  <si>
+    <t>AUTODSR_674E9</t>
+  </si>
+  <si>
+    <t>Father_C5D9</t>
+  </si>
+  <si>
+    <t>03410678400</t>
+  </si>
+  <si>
+    <t>EMP84E073</t>
+  </si>
+  <si>
+    <t>AUTODSR_7168D</t>
+  </si>
+  <si>
+    <t>Father_839F</t>
+  </si>
+  <si>
+    <t>03414661700</t>
+  </si>
+  <si>
+    <t>EMP53E370</t>
+  </si>
+  <si>
+    <t>AUTODSR_C95A9</t>
+  </si>
+  <si>
+    <t>Father_E79C</t>
+  </si>
+  <si>
+    <t>03416908800</t>
+  </si>
+  <si>
+    <t>EMPC22296</t>
+  </si>
+  <si>
+    <t>AUTODSR_48CFC</t>
+  </si>
+  <si>
+    <t>Father_DAF9</t>
+  </si>
+  <si>
+    <t>03683403100</t>
+  </si>
+  <si>
+    <t>EMPFE4823</t>
+  </si>
+  <si>
+    <t>AUTODSR_08835</t>
+  </si>
+  <si>
+    <t>Father_FC65</t>
+  </si>
+  <si>
+    <t>03687079700</t>
+  </si>
+  <si>
+    <t>EMP013E34</t>
+  </si>
+  <si>
+    <t>AUTODSR_8F170</t>
+  </si>
+  <si>
+    <t>Father_786C</t>
+  </si>
+  <si>
+    <t>03689478700</t>
+  </si>
+  <si>
+    <t>EMP8454E9</t>
+  </si>
+  <si>
+    <t>AUTODSR_5A281</t>
+  </si>
+  <si>
+    <t>Father_0AE6</t>
+  </si>
+  <si>
+    <t>03957131200</t>
+  </si>
+  <si>
+    <t>EMPC53123</t>
+  </si>
+  <si>
+    <t>AUTODSR_5CB5D</t>
+  </si>
+  <si>
+    <t>Father_FA7D</t>
+  </si>
+  <si>
+    <t>03960448200</t>
+  </si>
+  <si>
+    <t>EMP6641C1</t>
+  </si>
+  <si>
+    <t>AUTODSR_050B9</t>
+  </si>
+  <si>
+    <t>Father_B0EF</t>
+  </si>
+  <si>
+    <t>03962674000</t>
+  </si>
+  <si>
+    <t>EMP117C9D</t>
+  </si>
+  <si>
+    <t>AUTODSR_3F943</t>
+  </si>
+  <si>
+    <t>Father_655D</t>
+  </si>
+  <si>
+    <t>03956127900</t>
+  </si>
+  <si>
+    <t>EMP57685E</t>
+  </si>
+  <si>
+    <t>AUTODSR_8308F</t>
+  </si>
+  <si>
+    <t>Father_D62B</t>
+  </si>
+  <si>
+    <t>03957298200</t>
+  </si>
+  <si>
+    <t>EMP542681</t>
+  </si>
+  <si>
+    <t>AUTODSR_43CA3</t>
+  </si>
+  <si>
+    <t>Father_D131</t>
+  </si>
+  <si>
+    <t>03958221300</t>
+  </si>
+  <si>
+    <t>EMPB01AD4</t>
+  </si>
+  <si>
+    <t>AUTODSR_89E08</t>
+  </si>
+  <si>
+    <t>Father_B319</t>
+  </si>
+  <si>
+    <t>03078660100</t>
+  </si>
+  <si>
+    <t>EMP76E709</t>
+  </si>
+  <si>
+    <t>AUTODSR_0E4EC</t>
+  </si>
+  <si>
+    <t>Father_BC3B</t>
+  </si>
+  <si>
+    <t>03082719800</t>
+  </si>
+  <si>
+    <t>EMPEB5D68</t>
+  </si>
+  <si>
+    <t>AUTODSR_00C69</t>
+  </si>
+  <si>
+    <t>Father_6D36</t>
+  </si>
+  <si>
+    <t>03084683900</t>
+  </si>
+  <si>
+    <t>EMP0EF6AF</t>
+  </si>
+  <si>
+    <t>AUTODSR_1CF1D</t>
+  </si>
+  <si>
+    <t>Father_6858</t>
+  </si>
+  <si>
+    <t>03028820500</t>
+  </si>
+  <si>
+    <t>EMP192051</t>
+  </si>
+  <si>
+    <t>AUTODSR_DFEF6</t>
+  </si>
+  <si>
+    <t>Father_AE19</t>
+  </si>
+  <si>
+    <t>03032526700</t>
+  </si>
+  <si>
+    <t>EMPEA244C</t>
+  </si>
+  <si>
+    <t>AUTODSR_02385</t>
+  </si>
+  <si>
+    <t>Father_2636</t>
+  </si>
+  <si>
+    <t>03034289300</t>
+  </si>
+  <si>
+    <t>EMP4C808B</t>
+  </si>
+  <si>
+    <t>AUTODSR_F7044</t>
+  </si>
+  <si>
+    <t>Father_7827</t>
+  </si>
+  <si>
+    <t>03612321300</t>
+  </si>
+  <si>
+    <t>EMP59C536</t>
+  </si>
+  <si>
+    <t>AUTODSR_5FFDE</t>
+  </si>
+  <si>
+    <t>Father_5498</t>
+  </si>
+  <si>
+    <t>03615867000</t>
+  </si>
+  <si>
+    <t>EMP0F6A6E</t>
+  </si>
+  <si>
+    <t>AUTODSR_05C94</t>
+  </si>
+  <si>
+    <t>Father_B109</t>
+  </si>
+  <si>
+    <t>03618729700</t>
+  </si>
+  <si>
+    <t>EMPEF86EF</t>
+  </si>
+  <si>
+    <t>AUTODSR_A4792</t>
+  </si>
+  <si>
+    <t>Father_DE7C</t>
+  </si>
+  <si>
+    <t>03516310000</t>
+  </si>
+  <si>
+    <t>EMP14686D</t>
+  </si>
+  <si>
+    <t>AUTODSR_835D0</t>
+  </si>
+  <si>
+    <t>Father_47DD</t>
+  </si>
+  <si>
+    <t>03519913400</t>
+  </si>
+  <si>
+    <t>EMP7F06F5</t>
+  </si>
+  <si>
+    <t>AUTODSR_F9DA4</t>
+  </si>
+  <si>
+    <t>Father_2B5D</t>
+  </si>
+  <si>
+    <t>03521583000</t>
+  </si>
+  <si>
+    <t>EMP9AE877</t>
+  </si>
+  <si>
+    <t>AUTODSR_F9284</t>
+  </si>
+  <si>
+    <t>Father_54D1</t>
+  </si>
+  <si>
+    <t>03207437200</t>
+  </si>
+  <si>
+    <t>EMP687BB6</t>
+  </si>
+  <si>
+    <t>AUTODSR_5AC6A</t>
+  </si>
+  <si>
+    <t>Father_8A44</t>
+  </si>
+  <si>
+    <t>03209581900</t>
+  </si>
+  <si>
+    <t>EMPAB6225</t>
+  </si>
+  <si>
+    <t>AUTODSR_B9FDD</t>
+  </si>
+  <si>
+    <t>Father_11E5</t>
+  </si>
+  <si>
+    <t>03211033700</t>
+  </si>
+  <si>
+    <t>EMP1AC1C6</t>
+  </si>
+  <si>
+    <t>AUTODSR_CC6E1</t>
+  </si>
+  <si>
+    <t>03671878000</t>
+  </si>
+  <si>
+    <t>EMP348BDE</t>
+  </si>
+  <si>
+    <t>AUTODSR_7646D</t>
+  </si>
+  <si>
+    <t>Father_6FC5</t>
+  </si>
+  <si>
+    <t>03673947200</t>
+  </si>
+  <si>
+    <t>EMP32C30C</t>
+  </si>
+  <si>
+    <t>AUTODSR_CDF82</t>
+  </si>
+  <si>
+    <t>Father_6AE2</t>
+  </si>
+  <si>
+    <t>03676752700</t>
+  </si>
+  <si>
+    <t>EMP7D5B29</t>
+  </si>
+  <si>
+    <t>AUTODSR_E7FEC</t>
+  </si>
+  <si>
+    <t>Father_C025</t>
+  </si>
+  <si>
+    <t>03330959700</t>
+  </si>
+  <si>
+    <t>EMPC4079B</t>
+  </si>
+  <si>
+    <t>AUTODSR_C14CA</t>
+  </si>
+  <si>
+    <t>Father_5020</t>
+  </si>
+  <si>
+    <t>03333827300</t>
+  </si>
+  <si>
+    <t>EMP0F6E2D</t>
+  </si>
+  <si>
+    <t>AUTODSR_2C2BD</t>
+  </si>
+  <si>
+    <t>Father_40E1</t>
+  </si>
+  <si>
+    <t>03335507500</t>
+  </si>
+  <si>
+    <t>EMP697461</t>
+  </si>
+  <si>
+    <t>AUTODSR_0A9FE</t>
+  </si>
+  <si>
+    <t>Father_9DEE</t>
+  </si>
+  <si>
+    <t>03105738600</t>
+  </si>
+  <si>
+    <t>EMP75EE2E</t>
+  </si>
+  <si>
+    <t>AUTODSR_838EF</t>
+  </si>
+  <si>
+    <t>Father_7235</t>
+  </si>
+  <si>
+    <t>03107992700</t>
+  </si>
+  <si>
+    <t>EMPCC595F</t>
+  </si>
+  <si>
+    <t>AUTODSR_6BE90</t>
+  </si>
+  <si>
+    <t>Father_20F9</t>
+  </si>
+  <si>
+    <t>03109331500</t>
+  </si>
+  <si>
+    <t>EMP38E03B</t>
+  </si>
+  <si>
+    <t>AUTODSR_C0293</t>
+  </si>
+  <si>
+    <t>Father_FAE8</t>
+  </si>
+  <si>
+    <t>03136729300</t>
+  </si>
+  <si>
+    <t>EMP933DAD</t>
+  </si>
+  <si>
+    <t>AUTODSR_4FAEA</t>
+  </si>
+  <si>
+    <t>Father_E0A3</t>
+  </si>
+  <si>
+    <t>03149533500</t>
+  </si>
+  <si>
+    <t>EMP24A0A5</t>
+  </si>
+  <si>
+    <t>AUTODSR_827D7</t>
+  </si>
+  <si>
+    <t>Father_0E69</t>
+  </si>
+  <si>
+    <t>03152038800</t>
+  </si>
+  <si>
+    <t>EMP022866</t>
+  </si>
+  <si>
+    <t>AUTODSR_6A021</t>
+  </si>
+  <si>
+    <t>Father_55EC</t>
+  </si>
+  <si>
+    <t>03747789600</t>
+  </si>
+  <si>
+    <t>EMPACB561</t>
+  </si>
+  <si>
+    <t>AUTODSR_3474A</t>
+  </si>
+  <si>
+    <t>Father_F7EE</t>
+  </si>
+  <si>
+    <t>03752398600</t>
+  </si>
+  <si>
+    <t>EMP23E40E</t>
+  </si>
+  <si>
+    <t>AUTODSR_C3C34</t>
+  </si>
+  <si>
+    <t>Father_3E9A</t>
+  </si>
+  <si>
+    <t>03755451400</t>
+  </si>
+  <si>
+    <t>EMP30A623</t>
   </si>
 </sst>
 </file>
@@ -4016,19 +4661,19 @@
         <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1180</v>
+        <v>1395</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1181</v>
+        <v>1396</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>1182</v>
+        <v>1397</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>1183</v>
+        <v>1398</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>23</v>
@@ -4078,19 +4723,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1184</v>
+        <v>1399</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1185</v>
+        <v>1400</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>1186</v>
+        <v>1401</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>1187</v>
+        <v>1402</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>23</v>
@@ -4140,19 +4785,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1188</v>
+        <v>1403</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1189</v>
+        <v>1404</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>1190</v>
+        <v>1405</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>1191</v>
+        <v>1406</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>23</v>

--- a/Resources/dsrProfileData.xlsx
+++ b/Resources/dsrProfileData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1444" uniqueCount="1407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1743">
   <si>
     <t>DT Code*</t>
   </si>
@@ -4240,6 +4240,1014 @@
   </si>
   <si>
     <t>EMP30A623</t>
+  </si>
+  <si>
+    <t>AUTODSR_8FB02</t>
+  </si>
+  <si>
+    <t>Father_34AD</t>
+  </si>
+  <si>
+    <t>03712137400</t>
+  </si>
+  <si>
+    <t>EMPD84FA4</t>
+  </si>
+  <si>
+    <t>AUTODSR_39B5D</t>
+  </si>
+  <si>
+    <t>Father_4930</t>
+  </si>
+  <si>
+    <t>03716662200</t>
+  </si>
+  <si>
+    <t>EMPFF31D2</t>
+  </si>
+  <si>
+    <t>AUTODSR_856E6</t>
+  </si>
+  <si>
+    <t>Father_6A84</t>
+  </si>
+  <si>
+    <t>03720317100</t>
+  </si>
+  <si>
+    <t>EMP695C11</t>
+  </si>
+  <si>
+    <t>AUTODSR_AE82F</t>
+  </si>
+  <si>
+    <t>Father_CE1A</t>
+  </si>
+  <si>
+    <t>03191299800</t>
+  </si>
+  <si>
+    <t>EMPFEDAA2</t>
+  </si>
+  <si>
+    <t>AUTODSR_EE464</t>
+  </si>
+  <si>
+    <t>Father_5F8F</t>
+  </si>
+  <si>
+    <t>03196006200</t>
+  </si>
+  <si>
+    <t>EMP42F782</t>
+  </si>
+  <si>
+    <t>AUTODSR_1A772</t>
+  </si>
+  <si>
+    <t>Father_A98D</t>
+  </si>
+  <si>
+    <t>03199391000</t>
+  </si>
+  <si>
+    <t>EMP599EEC</t>
+  </si>
+  <si>
+    <t>AUTODSR_93FAB</t>
+  </si>
+  <si>
+    <t>Father_698B</t>
+  </si>
+  <si>
+    <t>03323926500</t>
+  </si>
+  <si>
+    <t>EMPAD070F</t>
+  </si>
+  <si>
+    <t>AUTODSR_CC0DF</t>
+  </si>
+  <si>
+    <t>Father_7F8C</t>
+  </si>
+  <si>
+    <t>03327749600</t>
+  </si>
+  <si>
+    <t>EMP44EA88</t>
+  </si>
+  <si>
+    <t>AUTODSR_D4232</t>
+  </si>
+  <si>
+    <t>Father_B800</t>
+  </si>
+  <si>
+    <t>03330548600</t>
+  </si>
+  <si>
+    <t>EMP770F23</t>
+  </si>
+  <si>
+    <t>AUTODSR_DFF88</t>
+  </si>
+  <si>
+    <t>Father_9648</t>
+  </si>
+  <si>
+    <t>03113674000</t>
+  </si>
+  <si>
+    <t>EMP242AD6</t>
+  </si>
+  <si>
+    <t>AUTODSR_47DE4</t>
+  </si>
+  <si>
+    <t>Father_FC88</t>
+  </si>
+  <si>
+    <t>03116644100</t>
+  </si>
+  <si>
+    <t>EMPD99B80</t>
+  </si>
+  <si>
+    <t>AUTODSR_F2D7C</t>
+  </si>
+  <si>
+    <t>Father_62E4</t>
+  </si>
+  <si>
+    <t>03119697300</t>
+  </si>
+  <si>
+    <t>EMPD513F0</t>
+  </si>
+  <si>
+    <t>AUTODSR_0D555</t>
+  </si>
+  <si>
+    <t>Father_885C</t>
+  </si>
+  <si>
+    <t>03742101300</t>
+  </si>
+  <si>
+    <t>EMP4A5EB3</t>
+  </si>
+  <si>
+    <t>AUTODSR_00BD2</t>
+  </si>
+  <si>
+    <t>Father_2113</t>
+  </si>
+  <si>
+    <t>03747722700</t>
+  </si>
+  <si>
+    <t>EMP658520</t>
+  </si>
+  <si>
+    <t>AUTODSR_AEB05</t>
+  </si>
+  <si>
+    <t>Father_1FCD</t>
+  </si>
+  <si>
+    <t>03753862800</t>
+  </si>
+  <si>
+    <t>EMPEEF868</t>
+  </si>
+  <si>
+    <t>AUTODSR_44D75</t>
+  </si>
+  <si>
+    <t>Father_A449</t>
+  </si>
+  <si>
+    <t>03044877200</t>
+  </si>
+  <si>
+    <t>EMP577568</t>
+  </si>
+  <si>
+    <t>AUTODSR_3ECDF</t>
+  </si>
+  <si>
+    <t>Father_BA9F</t>
+  </si>
+  <si>
+    <t>03050275700</t>
+  </si>
+  <si>
+    <t>EMPDB807D</t>
+  </si>
+  <si>
+    <t>AUTODSR_E2777</t>
+  </si>
+  <si>
+    <t>Father_F462</t>
+  </si>
+  <si>
+    <t>03053409000</t>
+  </si>
+  <si>
+    <t>EMP620D4A</t>
+  </si>
+  <si>
+    <t>AUTODSR_C1616</t>
+  </si>
+  <si>
+    <t>Father_398D</t>
+  </si>
+  <si>
+    <t>03308867000</t>
+  </si>
+  <si>
+    <t>EMPBFEA04</t>
+  </si>
+  <si>
+    <t>AUTODSR_B5849</t>
+  </si>
+  <si>
+    <t>Father_FFB6</t>
+  </si>
+  <si>
+    <t>03311630500</t>
+  </si>
+  <si>
+    <t>EMP018A84</t>
+  </si>
+  <si>
+    <t>AUTODSR_1525C</t>
+  </si>
+  <si>
+    <t>Father_5833</t>
+  </si>
+  <si>
+    <t>03313501900</t>
+  </si>
+  <si>
+    <t>EMP820D4D</t>
+  </si>
+  <si>
+    <t>AUTODSR_B4306</t>
+  </si>
+  <si>
+    <t>Father_3C6E</t>
+  </si>
+  <si>
+    <t>03696612500</t>
+  </si>
+  <si>
+    <t>EMPFA6DAA</t>
+  </si>
+  <si>
+    <t>AUTODSR_A91FA</t>
+  </si>
+  <si>
+    <t>Father_5681</t>
+  </si>
+  <si>
+    <t>03701608800</t>
+  </si>
+  <si>
+    <t>EMP02405D</t>
+  </si>
+  <si>
+    <t>AUTODSR_C2766</t>
+  </si>
+  <si>
+    <t>Father_3A82</t>
+  </si>
+  <si>
+    <t>03705685200</t>
+  </si>
+  <si>
+    <t>EMPA671C5</t>
+  </si>
+  <si>
+    <t>AUTODSR_BF372</t>
+  </si>
+  <si>
+    <t>Father_2F93</t>
+  </si>
+  <si>
+    <t>03958249100</t>
+  </si>
+  <si>
+    <t>EMPDCBB9F</t>
+  </si>
+  <si>
+    <t>AUTODSR_19FAD</t>
+  </si>
+  <si>
+    <t>Father_3BEA</t>
+  </si>
+  <si>
+    <t>03962684600</t>
+  </si>
+  <si>
+    <t>EMPAA4466</t>
+  </si>
+  <si>
+    <t>AUTODSR_A126B</t>
+  </si>
+  <si>
+    <t>Father_ED3A</t>
+  </si>
+  <si>
+    <t>03965002900</t>
+  </si>
+  <si>
+    <t>EMP0B5BCE</t>
+  </si>
+  <si>
+    <t>AUTODSR_A4C60</t>
+  </si>
+  <si>
+    <t>Father_1C57</t>
+  </si>
+  <si>
+    <t>03083899700</t>
+  </si>
+  <si>
+    <t>EMP19F2A4</t>
+  </si>
+  <si>
+    <t>AUTODSR_86009</t>
+  </si>
+  <si>
+    <t>Father_D607</t>
+  </si>
+  <si>
+    <t>03086308200</t>
+  </si>
+  <si>
+    <t>EMPFF582B</t>
+  </si>
+  <si>
+    <t>AUTODSR_74A88</t>
+  </si>
+  <si>
+    <t>Father_C17C</t>
+  </si>
+  <si>
+    <t>03087925200</t>
+  </si>
+  <si>
+    <t>EMPCF070D</t>
+  </si>
+  <si>
+    <t>AUTODSR_FF37E</t>
+  </si>
+  <si>
+    <t>Father_9A31</t>
+  </si>
+  <si>
+    <t>03539143700</t>
+  </si>
+  <si>
+    <t>EMPB271A0</t>
+  </si>
+  <si>
+    <t>AUTODSR_359BC</t>
+  </si>
+  <si>
+    <t>Father_4959</t>
+  </si>
+  <si>
+    <t>03540455400</t>
+  </si>
+  <si>
+    <t>EMP30D092</t>
+  </si>
+  <si>
+    <t>AUTODSR_B021C</t>
+  </si>
+  <si>
+    <t>Father_D27D</t>
+  </si>
+  <si>
+    <t>03541482500</t>
+  </si>
+  <si>
+    <t>EMP1E08AD</t>
+  </si>
+  <si>
+    <t>AUTODSR_22D41</t>
+  </si>
+  <si>
+    <t>Father_BB34</t>
+  </si>
+  <si>
+    <t>03861348800</t>
+  </si>
+  <si>
+    <t>EMP26B0D4</t>
+  </si>
+  <si>
+    <t>AUTODSR_9D854</t>
+  </si>
+  <si>
+    <t>Father_1DBF</t>
+  </si>
+  <si>
+    <t>03866458800</t>
+  </si>
+  <si>
+    <t>EMP69432B</t>
+  </si>
+  <si>
+    <t>AUTODSR_D9DFC</t>
+  </si>
+  <si>
+    <t>Father_275E</t>
+  </si>
+  <si>
+    <t>03870975400</t>
+  </si>
+  <si>
+    <t>EMP68C5B5</t>
+  </si>
+  <si>
+    <t>AUTODSR_077CB</t>
+  </si>
+  <si>
+    <t>Father_32D8</t>
+  </si>
+  <si>
+    <t>03955588700</t>
+  </si>
+  <si>
+    <t>EMPA855D7</t>
+  </si>
+  <si>
+    <t>AUTODSR_67D65</t>
+  </si>
+  <si>
+    <t>Father_BC77</t>
+  </si>
+  <si>
+    <t>03959046300</t>
+  </si>
+  <si>
+    <t>EMPDA1CB4</t>
+  </si>
+  <si>
+    <t>AUTODSR_8A298</t>
+  </si>
+  <si>
+    <t>Father_D37F</t>
+  </si>
+  <si>
+    <t>03961342700</t>
+  </si>
+  <si>
+    <t>EMP0046E7</t>
+  </si>
+  <si>
+    <t>AUTODSR_0A78F</t>
+  </si>
+  <si>
+    <t>Father_669F</t>
+  </si>
+  <si>
+    <t>03323830300</t>
+  </si>
+  <si>
+    <t>EMP0BBA75</t>
+  </si>
+  <si>
+    <t>AUTODSR_4224F</t>
+  </si>
+  <si>
+    <t>Father_A049</t>
+  </si>
+  <si>
+    <t>03327167000</t>
+  </si>
+  <si>
+    <t>EMPD28524</t>
+  </si>
+  <si>
+    <t>AUTODSR_4A404</t>
+  </si>
+  <si>
+    <t>Father_8F3B</t>
+  </si>
+  <si>
+    <t>03328992000</t>
+  </si>
+  <si>
+    <t>EMP1C203C</t>
+  </si>
+  <si>
+    <t>AUTODSR_22023</t>
+  </si>
+  <si>
+    <t>Father_EA98</t>
+  </si>
+  <si>
+    <t>03849014300</t>
+  </si>
+  <si>
+    <t>EMP0ED049</t>
+  </si>
+  <si>
+    <t>AUTODSR_21806</t>
+  </si>
+  <si>
+    <t>Father_73B0</t>
+  </si>
+  <si>
+    <t>03851288400</t>
+  </si>
+  <si>
+    <t>EMP0CF7C2</t>
+  </si>
+  <si>
+    <t>AUTODSR_A5066</t>
+  </si>
+  <si>
+    <t>Father_678F</t>
+  </si>
+  <si>
+    <t>03853549100</t>
+  </si>
+  <si>
+    <t>EMPA8713C</t>
+  </si>
+  <si>
+    <t>AUTODSR_2B16E</t>
+  </si>
+  <si>
+    <t>Father_3DCF</t>
+  </si>
+  <si>
+    <t>03524323700</t>
+  </si>
+  <si>
+    <t>EMP57732F</t>
+  </si>
+  <si>
+    <t>AUTODSR_4D190</t>
+  </si>
+  <si>
+    <t>Father_BE1F</t>
+  </si>
+  <si>
+    <t>03528563300</t>
+  </si>
+  <si>
+    <t>EMP4C4E69</t>
+  </si>
+  <si>
+    <t>AUTODSR_802C6</t>
+  </si>
+  <si>
+    <t>Father_9491</t>
+  </si>
+  <si>
+    <t>03531529400</t>
+  </si>
+  <si>
+    <t>EMP7D9232</t>
+  </si>
+  <si>
+    <t>AUTODSR_FB739</t>
+  </si>
+  <si>
+    <t>Father_F638</t>
+  </si>
+  <si>
+    <t>03091831500</t>
+  </si>
+  <si>
+    <t>EMPAD273B</t>
+  </si>
+  <si>
+    <t>AUTODSR_18D2A</t>
+  </si>
+  <si>
+    <t>Father_08FF</t>
+  </si>
+  <si>
+    <t>03097684800</t>
+  </si>
+  <si>
+    <t>EMPCD8CAA</t>
+  </si>
+  <si>
+    <t>AUTODSR_BE08C</t>
+  </si>
+  <si>
+    <t>Father_1D29</t>
+  </si>
+  <si>
+    <t>03100513300</t>
+  </si>
+  <si>
+    <t>EMP01A823</t>
+  </si>
+  <si>
+    <t>AUTODSR_8A73E</t>
+  </si>
+  <si>
+    <t>Father_0195</t>
+  </si>
+  <si>
+    <t>03321121300</t>
+  </si>
+  <si>
+    <t>EMPF193F8</t>
+  </si>
+  <si>
+    <t>AUTODSR_960CE</t>
+  </si>
+  <si>
+    <t>Father_25D5</t>
+  </si>
+  <si>
+    <t>03323203000</t>
+  </si>
+  <si>
+    <t>EMPADFF93</t>
+  </si>
+  <si>
+    <t>AUTODSR_5B354</t>
+  </si>
+  <si>
+    <t>Father_AC7F</t>
+  </si>
+  <si>
+    <t>03324852800</t>
+  </si>
+  <si>
+    <t>EMPFE4F76</t>
+  </si>
+  <si>
+    <t>AUTODSR_58E38</t>
+  </si>
+  <si>
+    <t>Father_1AE9</t>
+  </si>
+  <si>
+    <t>03295254000</t>
+  </si>
+  <si>
+    <t>EMP289C92</t>
+  </si>
+  <si>
+    <t>AUTODSR_DDC6B</t>
+  </si>
+  <si>
+    <t>Father_4ADE</t>
+  </si>
+  <si>
+    <t>03298123200</t>
+  </si>
+  <si>
+    <t>EMP6504E6</t>
+  </si>
+  <si>
+    <t>AUTODSR_0E613</t>
+  </si>
+  <si>
+    <t>Father_360C</t>
+  </si>
+  <si>
+    <t>03299762200</t>
+  </si>
+  <si>
+    <t>EMPE81E84</t>
+  </si>
+  <si>
+    <t>AUTODSR_0C964</t>
+  </si>
+  <si>
+    <t>Father_2AA3</t>
+  </si>
+  <si>
+    <t>03151925100</t>
+  </si>
+  <si>
+    <t>EMP730A31</t>
+  </si>
+  <si>
+    <t>AUTODSR_16EFF</t>
+  </si>
+  <si>
+    <t>Father_8603</t>
+  </si>
+  <si>
+    <t>03154987800</t>
+  </si>
+  <si>
+    <t>EMPD4FAEA</t>
+  </si>
+  <si>
+    <t>AUTODSR_07418</t>
+  </si>
+  <si>
+    <t>Father_0039</t>
+  </si>
+  <si>
+    <t>03157347500</t>
+  </si>
+  <si>
+    <t>EMP43EF64</t>
+  </si>
+  <si>
+    <t>AUTODSR_8F2F0</t>
+  </si>
+  <si>
+    <t>Father_4DB5</t>
+  </si>
+  <si>
+    <t>03817116000</t>
+  </si>
+  <si>
+    <t>EMP12ADCB</t>
+  </si>
+  <si>
+    <t>AUTODSR_5E7E9</t>
+  </si>
+  <si>
+    <t>Father_362E</t>
+  </si>
+  <si>
+    <t>03822467300</t>
+  </si>
+  <si>
+    <t>EMP9FD452</t>
+  </si>
+  <si>
+    <t>AUTODSR_66BB2</t>
+  </si>
+  <si>
+    <t>Father_017E</t>
+  </si>
+  <si>
+    <t>03826170700</t>
+  </si>
+  <si>
+    <t>EMP6870E1</t>
+  </si>
+  <si>
+    <t>AUTODSR_A4343</t>
+  </si>
+  <si>
+    <t>Father_ED77</t>
+  </si>
+  <si>
+    <t>03668863100</t>
+  </si>
+  <si>
+    <t>EMP572734</t>
+  </si>
+  <si>
+    <t>AUTODSR_84739</t>
+  </si>
+  <si>
+    <t>Father_9B86</t>
+  </si>
+  <si>
+    <t>03676105100</t>
+  </si>
+  <si>
+    <t>EMPA0A4D4</t>
+  </si>
+  <si>
+    <t>AUTODSR_6136F</t>
+  </si>
+  <si>
+    <t>Father_AEC8</t>
+  </si>
+  <si>
+    <t>03679063700</t>
+  </si>
+  <si>
+    <t>EMP586A1D</t>
+  </si>
+  <si>
+    <t>AUTODSR_ACC34</t>
+  </si>
+  <si>
+    <t>Father_A6D3</t>
+  </si>
+  <si>
+    <t>03700471700</t>
+  </si>
+  <si>
+    <t>EMP095B23</t>
+  </si>
+  <si>
+    <t>AUTODSR_A6D33</t>
+  </si>
+  <si>
+    <t>Father_97CF</t>
+  </si>
+  <si>
+    <t>03705791500</t>
+  </si>
+  <si>
+    <t>EMPF44EA3</t>
+  </si>
+  <si>
+    <t>AUTODSR_53864</t>
+  </si>
+  <si>
+    <t>Father_19D2</t>
+  </si>
+  <si>
+    <t>03709063300</t>
+  </si>
+  <si>
+    <t>EMP7800DA</t>
+  </si>
+  <si>
+    <t>AUTODSR_EB011</t>
+  </si>
+  <si>
+    <t>Father_BE60</t>
+  </si>
+  <si>
+    <t>03343893400</t>
+  </si>
+  <si>
+    <t>EMP6E92C9</t>
+  </si>
+  <si>
+    <t>AUTODSR_8FF9D</t>
+  </si>
+  <si>
+    <t>Father_CB86</t>
+  </si>
+  <si>
+    <t>03346652100</t>
+  </si>
+  <si>
+    <t>EMPBAF845</t>
+  </si>
+  <si>
+    <t>AUTODSR_8D938</t>
+  </si>
+  <si>
+    <t>Father_43F4</t>
+  </si>
+  <si>
+    <t>03348932800</t>
+  </si>
+  <si>
+    <t>EMPE77894</t>
+  </si>
+  <si>
+    <t>AUTODSR_1CF23</t>
+  </si>
+  <si>
+    <t>Father_7643</t>
+  </si>
+  <si>
+    <t>03806215700</t>
+  </si>
+  <si>
+    <t>EMP9B7093</t>
+  </si>
+  <si>
+    <t>AUTODSR_B3E5B</t>
+  </si>
+  <si>
+    <t>Father_17BF</t>
+  </si>
+  <si>
+    <t>03811083100</t>
+  </si>
+  <si>
+    <t>EMPF3C18B</t>
+  </si>
+  <si>
+    <t>AUTODSR_3BA0D</t>
+  </si>
+  <si>
+    <t>Father_7A1D</t>
+  </si>
+  <si>
+    <t>03813928700</t>
+  </si>
+  <si>
+    <t>EMP9606BB</t>
+  </si>
+  <si>
+    <t>AUTODSR_625E7</t>
+  </si>
+  <si>
+    <t>Father_0E72</t>
+  </si>
+  <si>
+    <t>03711374900</t>
+  </si>
+  <si>
+    <t>EMP7E0CE2</t>
+  </si>
+  <si>
+    <t>AUTODSR_F3F25</t>
+  </si>
+  <si>
+    <t>Father_3B76</t>
+  </si>
+  <si>
+    <t>03713297100</t>
+  </si>
+  <si>
+    <t>EMP437737</t>
+  </si>
+  <si>
+    <t>AUTODSR_A68D3</t>
+  </si>
+  <si>
+    <t>Father_FA2C</t>
+  </si>
+  <si>
+    <t>03714809300</t>
+  </si>
+  <si>
+    <t>EMP1DD729</t>
+  </si>
+  <si>
+    <t>AUTODSR_A9415</t>
+  </si>
+  <si>
+    <t>Father_A47E</t>
+  </si>
+  <si>
+    <t>03661174500</t>
+  </si>
+  <si>
+    <t>EMP386E84</t>
+  </si>
+  <si>
+    <t>AUTODSR_79577</t>
+  </si>
+  <si>
+    <t>Father_D773</t>
+  </si>
+  <si>
+    <t>03665305800</t>
+  </si>
+  <si>
+    <t>EMP027BF7</t>
+  </si>
+  <si>
+    <t>AUTODSR_97650</t>
+  </si>
+  <si>
+    <t>Father_E3B8</t>
+  </si>
+  <si>
+    <t>03668200600</t>
+  </si>
+  <si>
+    <t>EMP0C30CF</t>
+  </si>
+  <si>
+    <t>AUTODSR_DD62B</t>
+  </si>
+  <si>
+    <t>Father_06BC</t>
+  </si>
+  <si>
+    <t>03675892100</t>
+  </si>
+  <si>
+    <t>EMPE17D78</t>
+  </si>
+  <si>
+    <t>AUTODSR_26B88</t>
+  </si>
+  <si>
+    <t>Father_4835</t>
+  </si>
+  <si>
+    <t>03678450100</t>
+  </si>
+  <si>
+    <t>EMP3A0AC6</t>
+  </si>
+  <si>
+    <t>AUTODSR_4D224</t>
+  </si>
+  <si>
+    <t>Father_5343</t>
+  </si>
+  <si>
+    <t>03680963400</t>
+  </si>
+  <si>
+    <t>EMP218A1F</t>
   </si>
 </sst>
 </file>
@@ -4661,19 +5669,19 @@
         <v>36</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>1395</v>
+        <v>1731</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>1396</v>
+        <v>1732</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>1397</v>
+        <v>1733</v>
       </c>
       <c r="F2" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>1398</v>
+        <v>1734</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>23</v>
@@ -4723,19 +5731,19 @@
         <v>38</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>1399</v>
+        <v>1735</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>1400</v>
+        <v>1736</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>1401</v>
+        <v>1737</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>27</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>1402</v>
+        <v>1738</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>23</v>
@@ -4785,19 +5793,19 @@
         <v>21</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>1403</v>
+        <v>1739</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>1404</v>
+        <v>1740</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>1405</v>
+        <v>1741</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>28</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>1406</v>
+        <v>1742</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>23</v>
